--- a/data/faq.xlsx
+++ b/data/faq.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Для начала вам необходимо зайти в наше приложение и перейти в меню "Межгород". В меню "Межгород" вам нужно указать информацию о вашей поездке. Это включает в себя дату и время отправления, ваше направление и стоимость за место. После добавления этой информации ваш маршрут станет доступен для пассажиров в нашей системе. Это даст им возможность связаться с вами напрямую для обсуждения всех деталей поездки, включая время, место встречи и любые другие важные моменты. В настоящий момент наш сервис бесплатен для водителей. В будущем мы планируем ввести абонентскую плату, которая будет зависеть от выбранного вами тарифного плана (дневного или недельного).С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Для начала вам необходимо зайти в наше приложение и перейти в меню "Межгород". В меню "Межгород" вам нужно указать информацию о вашей поездке. Это включает в себя дату и время отправления, ваше направление и стоимость за место. После добавления этой информации ваш маршрут станет доступен для пассажиров в нашей системе. Это даст им возможность связаться с вами напрямую для обсуждения всех деталей поездки, включая время, место встречи и любые другие важные моменты. В настоящий момент наш сервис бесплатен для водителей. В будущем мы планируем ввести абонентскую плату, которая будет зависеть от выбранного вами тарифного плана (дневного или недельного). С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -465,8 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. 1) Низкая фиксированная комиссия, а не процент от заработка водителя 2) Водитель может самостоятельно выбирать понравившийся заказ 3) Конечный пункт в онлайн заказах заранее известен 4)Возможность увеличивать свой доход выполняя несколько видов услуг в одном приложении, например легковое такси и универсал, доставку, заказы корпоративных клиентов, либо дополнительно выполнять заказы класса оптимал и комфорт. С уважением, команда АПАРУ.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. 1) Низкая фиксированная комиссия, а не процент от заработка водителя 2) Водитель может самостоятельно выбирать понравившийся заказ 3) Конечный пункт в онлайн заказах заранее известен 4)Возможность увеличивать свой доход выполняя несколько видов услуг в одном приложении, например легковое такси и универсал, доставку, заказы корпоративных клиентов, либо дополнительно выполнять заказы класса оптимал и комфорт. С уважением, команда АПАРУ. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -502,12 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Плата за багажное отделение не взимается, так как стоимость багажа уже заложена в стоимость проезда.
-Исключение может быть, если: 
-- багаж размещен в салоне автомобиля, так как не поместился в багажном отделении; 
-- багаж загрязняет или портит салон и (или) багажное отделение автомобиля. 
-В таких случаях оплата взимается в размере 150 тг.
-Если вы не готовы перевозить габаритный груз клиента, то рекомендуйте клиентам разместить заказ по тарифу “легковой-универсал” либо по тарифу “грузовой автомобиль”. После удалите заказ, как "Ошибка в заказе" - “Тип автомобиля”, заранее уведомив клиента. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Плата за багажное отделение не взимается, так как стоимость багажа уже заложена в стоимость проезда. Исключение может быть, если: - багаж размещен в салоне автомобиля, так как не поместился в багажном отделении; - багаж загрязняет или портит салон и (или) багажное отделение автомобиля. В таких случаях оплата взимается в размере 150 тг. Если вы не готовы перевозить габаритный груз клиента, то рекомендуйте клиентам разместить заказ по тарифу “легковой-универсал” либо по тарифу “грузовой автомобиль”. После удалите заказ, как "Ошибка в заказе" - “Тип автомобиля”, заранее уведомив клиента. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -519,12 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. В соответствии с пунктом 4 статьи 7 Закона "Об автомобильном транспорте" услуги такси могут оказываться только на леворульном автомобиле с количеством не менее четырех боковых дверей. 
-Водитель может зарегистрировать любое транспортное средство в вашем сервисе. Это может быть праворульный или двухдверный автомобиль, мотоцикл, газель, эвакуатор и т.д. Однако, каждый транспорт может оказывать только ту услугу, которая разрешена ему по законодательству:
-а) леворульные автомобили с количеством не менее четырех боковых дверей - все заказы по перевозке пассажиров и багажа,
-б) праворульные, двух или трехдверные, двухколесные - доставку,
-с) газели - перевозку крупногабаритного багажа и т.д.
-В ленте заказов водитель видит условные обозначения по заказам и должен выполнять только те заказы, которые ему разрешены согласно правилам перевозок. Если водитель нарушает их, то за это придется нести ответственность.С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. В соответствии с пунктом 4 статьи 7 Закона "Об автомобильном транспорте" услуги такси могут оказываться только на леворульном автомобиле с количеством не менее четырех боковых дверей. Водитель может зарегистрировать любое транспортное средство в вашем сервисе. Это может быть праворульный или двухдверный автомобиль, мотоцикл, газель, эвакуатор и т. д. Однако, каждый транспорт может оказывать только ту услугу, которая разрешена ему по законодательству: а) леворульные автомобили с количеством не менее четырех боковых дверей - все заказы по перевозке пассажиров и багажа, б) праворульные, двух или трехдверные, двухколесные - доставку, с) газели - перевозку крупногабаритного багажа и т. д. В ленте заказов водитель видит условные обозначения по заказам и должен выполнять только те заказы, которые ему разрешены согласно правилам перевозок. Если водитель нарушает их, то за это придется нести ответственность. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -536,13 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. 
-Условия оплаты: 
-Усть-Каменогорск: при условии выполнения 30 заказов в мес - 5000 тг, при выполнении 150 заказов в мес - 10000 тг.
-Другие города: 10000 тг
-Или альтернатива - включить режим 20% кэшбек комиссии за заказ.
-2 раза в месяц поступает фотоконтроль, который нужно успешно пройти 
-Какие авто принимаются: рассматриваются 4-дверные автомобили с левосторонним рулевым управлением с казахстанскими гос.номерам класса эконом не старше 2010 года и автомобили с классов Оптимал и Комфорт без повреждений, после осмотра менеджером АПАРУ. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Условия оплаты: Усть-Каменогорск: при условии выполнения 30 заказов в мес - 5000 тг, при выполнении 150 заказов в мес - 10000 тг. Другие города: 10000 тг Или альтернатива - включить режим 20% кэшбек комиссии за заказ. 2 раза в месяц поступает фотоконтроль, который нужно успешно пройти Какие авто принимаются: рассматриваются 4-дверные автомобили с левосторонним рулевым управлением с казахстанскими гос. номерам класса эконом не старше 2010 года и автомобили с классов Оптимал и Комфорт без повреждений, после осмотра менеджером АПАРУ. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -554,19 +537,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Пройти регистрацию в приложении АПАРУ: https://youtu.be/7e6o1ATF2wc</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Пройти регистрацию в приложении АПАРУ: https: //youtu. be/7e6o1ATF2wc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Как мне принимать заказы,и что для этого надо?</t>
+          <t>Как мне принимать заказы, и что для этого надо?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Установите приложение APARU бесплатно в Google Play/App store. Для регистрации достаточно ввести свой номер телефона и проверочный код, который поступит на номер. Для взятия заказов, выберите режим "Водителя" и заполните в полях ваше имя, дату рождения, данные автомобиля по техпаспорту, далее появится Лента заказов, в которой клиенты указывают откуда их нужно забрать. Заранее пополнив баланс на ID выберите интересующий адрес, примите его на исполнение, при этом вам открывается доступ к номеру телефона клиента.  Ознакомиться с тарифами можно в приложении, нажав на интересующее изображение автомобиля (легковое, универсал, комфорт, грузовое, эвакуатор). Пополнить баланс можно в приложении Halyk без комиссии а также через любые электронные кошельки и терминалы, такж привязав карту в прилоежении АПАРУ. Стоимость 1 единицы равна 1 тенге. Для пополнения баланса вам потребуется указать свой ID в системе АПАРУ. Узнать ID можно через приложение. ID номер указан в меню, прямо под номером телефона. С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Установите приложение APARU бесплатно в Google Play/App store. Для регистрации достаточно ввести свой номер телефона и проверочный код, который поступит на номер. Для взятия заказов, выберите режим "Водителя" и заполните в полях ваше имя, дату рождения, данные автомобиля по техпаспорту, далее появится Лента заказов, в которой клиенты указывают откуда их нужно забрать. Заранее пополнив баланс на ID выберите интересующий адрес, примите его на исполнение, при этом вам открывается доступ к номеру телефона клиента. Ознакомиться с тарифами можно в приложении, нажав на интересующее изображение автомобиля (легковое, универсал, комфорт, грузовое, эвакуатор). Пополнить баланс можно в приложении Halyk без комиссии а также через любые электронные кошельки и терминалы, такж привязав карту в прилоежении АПАРУ. Стоимость 1 единицы равна 1 тенге. Для пополнения баланса вам потребуется указать свой ID в системе АПАРУ. Узнать ID можно через приложение. ID номер указан в меню, прямо под номером телефона. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -578,8 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Во вкладке "Профиль" нажмите на кнопку "Подтвердить аккаунт онлайн". Появится окно со ссылкой на оферту (условия работы с приложением в качестве водителя) с кнопками “Принять” и “Отменить”. Внимательно ознакомьтесь с условиями оферты, и если они вам подходят, нажмите кнопку "Принять". Если вы не готовы работать водителем на условиях оферты Апару, нажмите кнопку “Отменить” и пользуйтесь приложением в качестве пассажира. После принятия оферты приложение попросит загрузить снимки удостоверения личности с двух сторон, техпаспорта, автомобиля и вас. Примеры как снимать вам будут представлены. После того, как вы загрузите снимки, появится уведомление об успешной загрузке снимков.В течении 10-15 минут специалист рассмотрит запрос и отправит уведомление о подтверждении аккаунта или о наличии ошибки. Если поступит уведомление об ошибке, ознакомьтесь в чем ошибка и повторите процедуру с учетом рекомендаций в уведомлении.
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Во вкладке "Профиль" нажмите на кнопку "Подтвердить аккаунт онлайн". Появится окно со ссылкой на оферту (условия работы с приложением в качестве водителя) с кнопками “Принять” и “Отменить”. Внимательно ознакомьтесь с условиями оферты, и если они вам подходят, нажмите кнопку "Принять". Если вы не готовы работать водителем на условиях оферты Апару, нажмите кнопку “Отменить” и пользуйтесь приложением в качестве пассажира. После принятия оферты приложение попросит загрузить снимки удостоверения личности с двух сторон, техпаспорта, автомобиля и вас. Примеры как снимать вам будут представлены. После того, как вы загрузите снимки, появится уведомление об успешной загрузке снимков. В течении 10-15 минут специалист рассмотрит запрос и отправит уведомление о подтверждении аккаунта или о наличии ошибки. Если поступит уведомление об ошибке, ознакомьтесь в чем ошибка и повторите процедуру с учетом рекомендаций в уведомлении. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -603,8 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Личное фото водителя необходимо для того, чтобы специалист, проводящий процедуру подтверждения, мог сличать фото с удостоверением личности на соответствие. Что в свою очередь исключает возможность регистрации третьих лиц по чужим документам.
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Личное фото водителя необходимо для того, чтобы специалист, проводящий процедуру подтверждения, мог сличать фото с удостоверением личности на соответствие. Что в свою очередь исключает возможность регистрации третьих лиц по чужим документам. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -616,14 +597,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. На фото должен быть изображен тот человек, на которого зарегистрирован аккаунт. Фотографироваться необходимо с близкого расстояния,в кадре не должно быть других людей и какой-либо рекламы. С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. На фото должен быть изображен тот человек, на которого зарегистрирован аккаунт. Фотографироваться необходимо с близкого расстояния, в кадре не должно быть других людей и какой-либо рекламы. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Как удалить профильную фотографию (аватарку)? ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ </t>
+          <t>Как удалить профильную фотографию (аватарку)? ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -640,8 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.  Для добавления нового автомобиля в профиле приложения нажмите на пункт "Автомобиль" - "Добавить авто", в открывшемся бланке заполните данные об автомобиле и нажмите Сохранить". При переходе в Ленту заказов Вам поступит запрос на загрузку снимков техпаспорта и автомобиля для подтверждения данных о новом автомобиле.
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Для добавления нового автомобиля в профиле приложения нажмите на пункт "Автомобиль" - "Добавить авто", в открывшемся бланке заполните данные об автомобиле и нажмите Сохранить". При переходе в Ленту заказов Вам поступит запрос на загрузку снимков техпаспорта и автомобиля для подтверждения данных о новом автомобиле. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -653,8 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Пассажирские перевозки и передвижение в темное время суток на автомобиле с транзитными номерами запрещено по правилам ПДД, поэтому одобрить ваш запрос нельзя. Отправьте, пожалуйста, повторный запрос на подтверждение автомобиля после получения постоянного гос.номера и нового техпаспорта.
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Пассажирские перевозки и передвижение в темное время суток на автомобиле с транзитными номерами запрещено по правилам ПДД, поэтому одобрить ваш запрос нельзя. Отправьте, пожалуйста, повторный запрос на подтверждение автомобиля после получения постоянного гос. номера и нового техпаспорта. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -678,8 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. В случае утери номера вы не сможете получить код подтверждения, соответственно и войти в аккаунт не получится. Значит, нужно изменить номер телефона на вашем аккаунте. Зарегистрируйтесь в приложении с нового номера и пройдите процедуру подтверждения аккаунта. Специалист рассмотрит запрос и восстановит предыдущий аккаунт с новым номером телефона. Вам поступит уведомление о успешной обработке запроса или о наличии ошибки. Если поступит уведомление об ошибке, повторно пройдите процедуру подтверждения с учетом рекомендаций в уведомлении.
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. В случае утери номера вы не сможете получить код подтверждения, соответственно и войти в аккаунт не получится. Значит, нужно изменить номер телефона на вашем аккаунте. Зарегистрируйтесь в приложении с нового номера и пройдите процедуру подтверждения аккаунта. Специалист рассмотрит запрос и восстановит предыдущий аккаунт с новым номером телефона. Вам поступит уведомление о успешной обработке запроса или о наличии ошибки. Если поступит уведомление об ошибке, повторно пройдите процедуру подтверждения с учетом рекомендаций в уведомлении. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -691,9 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Пополнить баланс можно в приложении Halyk без комиссии а также через любые электронные кошельки и терминалы, такж привязав карту в прилоежении АПАРУ. Стоимость 1 единицы равна 1 тенге. Для пополнения баланса вам потребуется указать свой ID в системе АПАРУ. Узнать ID можно через приложение. ID номер указан в меню, прямо под номером телефона. С уважением, команда АПАРУ
-Видео-инструкция о пополнении баланса на русском: https://youtu.be/7oK-DrUbEqM
-Видео-инструкция о пополнении баланса на казахском: https://youtu.be/feRpaU2q6yI.  С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Пополнить баланс можно в приложении Halyk без комиссии а также через любые электронные кошельки и терминалы, такж привязав карту в прилоежении АПАРУ. Стоимость 1 единицы равна 1 тенге. Для пополнения баланса вам потребуется указать свой ID в системе АПАРУ. Узнать ID можно через приложение. ID номер указан в меню, прямо под номером телефона. С уважением, команда АПАРУ Видео-инструкция о пополнении баланса на русском: https: //youtu. be/7oK-DrUbEqM Видео-инструкция о пополнении баланса на казахском: https: //youtu. be/feRpaU2q6yI. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -705,12 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Информация о сумме вашего баланса расположена в верхнем левом углу над лентой заказов. По нажатию на количество единиц вы будете переведены в раздел Управление балансом, где можете осуществить следующие операции:
-- пополнить баланс, привязав платежную карту - раздел На взятие заказов
-- перевести средства на аккаунт другого водителя - раздел Перевод средств
-- посмотреть отчет по списанию и возврату единиц - раздел По балансу
-- посмотреть ваш доход за неделю, месяц и 3 месяца - раздел Статистика доходов
-- перевести безналичные средства - раздел По безналу. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Информация о сумме вашего баланса расположена в верхнем левом углу над лентой заказов. По нажатию на количество единиц вы будете переведены в раздел Управление балансом, где можете осуществить следующие операции: - пополнить баланс, привязав платежную карту - раздел На взятие заказов - перевести средства на аккаунт другого водителя - раздел Перевод средств - посмотреть отчет по списанию и возврату единиц - раздел По балансу - посмотреть ваш доход за неделю, месяц и 3 месяца - раздел Статистика доходов - перевести безналичные средства - раздел По безналу. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -722,8 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Если это не связано со сбоем в работе платёжной системы, то наиболее частая причина не поступления средств - ошибка при вводе ID аккаунта. Пожалуйста, сверьте, указанный в чеке ID c вашим ID. Если они не совпадают, вам необходимо отправить фото чека с указанием правильного ID на нашу техподдержку. Запрос будет рассмотрен в порядке очередности в кратчайшие сроки.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Если это не связано со сбоем в работе платёжной системы, то наиболее частая причина не поступления средств - ошибка при вводе ID аккаунта. Пожалуйста, сверьте, указанный в чеке ID c вашим ID. Если они не совпадают, вам необходимо отправить фото чека с указанием правильного ID на нашу техподдержку. Запрос будет рассмотрен в порядке очередности в кратчайшие сроки. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -747,8 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Функция передачи заказа внедрена для того, чтобы была возможность вернуть заказ в Ленту при форс-мажорных ситуациях, которые возникают на стороне водителя, и тем самым дать возможность клиенту уехать.
-На деле же передача заказа чаще происходит без веских на то причин: водитель не захотел ехать в тот или иной район города, не готов возить отдельные категории клиентов (нетрезвые, с животными, с детьми и т.д.), Вы оплачиваете за достоверную информацию о контактном номере пассажира, о его месторасположении и дополнительных примечаниях к заказу (наличие животных, например). Если при этом приобретенная информация корректна и клиент готов совершить поездку, то передачу и удаление заказа можно считать вашей прихотью, которая подрывает доверие к вам и сервису в целом. Рекомендуем вам придерживаться условий работы сервиса Апару. С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Функция передачи заказа внедрена для того, чтобы была возможность вернуть заказ в Ленту при форс-мажорных ситуациях, которые возникают на стороне водителя, и тем самым дать возможность клиенту уехать. На деле же передача заказа чаще происходит без веских на то причин: водитель не захотел ехать в тот или иной район города, не готов возить отдельные категории клиентов (нетрезвые, с животными, с детьми и т. д. ), Вы оплачиваете за достоверную информацию о контактном номере пассажира, о его месторасположении и дополнительных примечаниях к заказу (наличие животных, например). Если при этом приобретенная информация корректна и клиент готов совершить поездку, то передачу и удаление заказа можно считать вашей прихотью, которая подрывает доверие к вам и сервису в целом. Рекомендуем вам придерживаться условий работы сервиса Апару. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -760,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Все платежные системы взымают комиссию, но могут делать это по-разному: некоторые снимают с держателя карты, а другие выставляют счет на компанию, куда были переведены средства. Каспи же относится ко второму варианту - они взымают комиссию с компании, куда вы перевели средства. Вы знаете, что в нашей Оферте для Исполнителей есть пункт 3. Размер, порядок оплаты и учёта средств на Балансе, где в подпункте 2,2 есть нужная вам информация: Поставщик оставляет за собой право взимать с поступающего платежа сумму, равную комиссии Платежной системы, посредством которой был осуществлен платеж в счет погашения комиссии Платежной системы за проведение данного платежа. Это означает, что компания АПАРУ переводит на счет Каспи комиссию, которую они могли удержать с вашей карты. По нашей бухгалтерской отчетности мы в обязательном порядке указываем, что это комиссия именно платежной системы. Для пополнения баланса без комиссии вы можете воспользоваться способом- через приложение Halyk. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Все платежные системы взымают комиссию, но могут делать это по-разному: некоторые снимают с держателя карты, а другие выставляют счет на компанию, куда были переведены средства. Каспи же относится ко второму варианту - они взымают комиссию с компании, куда вы перевели средства. Вы знаете, что в нашей Оферте для Исполнителей есть пункт 3. Размер, порядок оплаты и учёта средств на Балансе, где в подпункте 2, 2 есть нужная вам информация: Поставщик оставляет за собой право взимать с поступающего платежа сумму, равную комиссии Платежной системы, посредством которой был осуществлен платеж в счет погашения комиссии Платежной системы за проведение данного платежа. Это означает, что компания АПАРУ переводит на счет Каспи комиссию, которую они могли удержать с вашей карты. По нашей бухгалтерской отчетности мы в обязательном порядке указываем, что это комиссия именно платежной системы. Для пополнения баланса без комиссии вы можете воспользоваться способом- через приложение Halyk. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -784,21 +753,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. При пополнении ID номера аккаунта средства конвертируются в единицы и нет возможности их вернуть. Это предусмотрено пунктом 3.7 Оферты Исполнителя: Денежные средства, на которые были приобретены Единицы не подлежат возврату. В такой ситуации мы можем посоветовать вам:
-1. перевести единицы на аккаунт другого водителя, комиссия за перевод составляет 20 ед. вне зависимости от суммы;
-2. обратиться в платежную систему или банк, с которого совершали последний платеж и запросить отмену платежа. Если они направят нам электронное письмо на возврат средств, то мы подтвердим. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. При пополнении ID номера аккаунта средства конвертируются в единицы и нет возможности их вернуть. Это предусмотрено пунктом 3. 7 Оферты Исполнителя: Денежные средства, на которые были приобретены Единицы не подлежат возврату. В такой ситуации мы можем посоветовать вам: 1. перевести единицы на аккаунт другого водителя, комиссия за перевод составляет 20 ед. вне зависимости от суммы; 2. обратиться в платежную систему или банк, с которого совершали последний платеж и запросить отмену платежа. Если они направят нам электронное письмо на возврат средств, то мы подтвердим. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">почему на моем балансе не ровная сумма, а  с есть сотые и десятые доли </t>
+          <t>Почему на моем балансе не ровная сумма, а с есть сотые и десятые доли</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. При пополнении баланса взимается комиссия платежной системы, которая зависит от вносимой вами суммы (например, вы пополнили баланс через терминал QIWI на сумму 840 тенге комиссия платежной системы составила 25,2 тенге и сумма к зачислению получилась 814,8 тенге), что может быть причиной отображения нецелого количества единиц. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. При пополнении баланса взимается комиссия платежной системы, которая зависит от вносимой вами суммы (например, вы пополнили баланс через терминал QIWI на сумму 840 тенге комиссия платежной системы составила 25, 2 тенге и сумма к зачислению получилась 814, 8 тенге), что может быть причиной отображения нецелого количества единиц. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -810,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Подобная информация по размере комиссии в зависимости от услуги и тарифа доступна по ссылке: https://aparutaxi.kz/p/тарифы_на_услуги_апару. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Подобная информация по размере комиссии в зависимости от услуги и тарифа доступна по ссылке: https: //aparutaxi. kz/p/тарифы_на_услуги_апару. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -822,25 +789,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. По тарифу «Аукцион» есть абонетская плата, которую можно активировать на 7 дней за 100 ед. После активации абонентской платы в течение 7 дней можно отправлять предложения цены без ограничений и выполнять любое количество аукционных заказов без комиссии. Если клиент вас не выбирает абонентская плата не возвращается. 
-В соотношении с выполненными заказами за 7 суток активация абонентской платы выгодна для водителей. Так как, если заказ зарегистрирован посредством call-центра: 
-1. стоимость одного заказа по межгороду - 200 единиц.
-2. стоимость одного заказа по пригороду - 70 единиц.  С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. По тарифу «Аукцион» есть абонетская плата, которую можно активировать на 7 дней за 100 ед. После активации абонентской платы в течение 7 дней можно отправлять предложения цены без ограничений и выполнять любое количество аукционных заказов без комиссии. Если клиент вас не выбирает абонентская плата не возвращается. В соотношении с выполненными заказами за 7 суток активация абонентской платы выгодна для водителей. Так как, если заказ зарегистрирован посредством call-центра: 1. стоимость одного заказа по межгороду - 200 единиц. 2. стоимость одного заказа по пригороду - 70 единиц. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Наценка на Заказ:
-- что означает "+20%"
-- как отказаться от наценки
-- почему иногда "+20%"а иногда даже "+50%"</t>
+          <t>Наценка на Заказ: - что означает "+20%" - как отказаться от наценки - почему иногда "+20%"а иногда даже "+50%"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Когда резко возрастает количество заказов (в часы пик, в праздничные дни, при резком ухудшении метеоусловий и т.д.) надбавка может составить от 10 до 100 процентов и будет действовать на время, пока заказов в ленте не станет как обычно. При включении таксометра надбавка будет учитываться автоматически. Клиенты, которые в этот момент совершают заказ будут оповещены о повышенной расценке и размере надбавки. Будьте обходительны с пассажирами, объясняйте им, что «пиковое» повышение расценки значительно сократит время ожидания машины в моменты повышенного спроса. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Когда резко возрастает количество заказов (в часы пик, в праздничные дни, при резком ухудшении метеоусловий и т. д. ) надбавка может составить от 10 до 100 процентов и будет действовать на время, пока заказов в ленте не станет как обычно. При включении таксометра надбавка будет учитываться автоматически. Клиенты, которые в этот момент совершают заказ будут оповещены о повышенной расценке и размере надбавки. Будьте обходительны с пассажирами, объясняйте им, что «пиковое» повышение расценки значительно сократит время ожидания машины в моменты повышенного спроса. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -852,34 +813,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Ночной тариф - это тариф, который действует в период с 00:00 часов до 06:00 часов ежедневно по заказам легкового такси в черте города. Стоимость тарифа на 20% дороже стандартного тарифа (в зависимости от тарифа - Эконом, Оптимал, Комфорт или Универсал) и распространяется на общую сумму заказа (посадка, километраж, ожидание, моточасы и доплата за районы повышенной стоимости). С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Ночной тариф - это тариф, который действует в период с 00: 00 часов до 06: 00 часов ежедневно по заказам легкового такси в черте города. Стоимость тарифа на 20% дороже стандартного тарифа (в зависимости от тарифа - Эконом, Оптимал, Комфорт или Универсал) и распространяется на общую сумму заказа (посадка, километраж, ожидание, моточасы и доплата за районы повышенной стоимости). С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Почему ночной тариф действует с 00:00, а не с 22:00? </t>
+          <t>Почему ночной тариф действует с 00: 00, а не с 22: 00?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Общее положение не может учитывать специфику работы всех отраслей и дает лишь обобщенное представление. Интервал ночного времени с 22:00 до 06:00 не учитывает специфику работы в такси. В нашем сервисе свободный график работы.
-Соответственно, компанией выбран период времени, когда работа водителя несет больше расходов на исполнение заказов, чем днем. По этой причине общая сумма заказа на 20% выше именно с 00:00 до 06:00. 
-С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Общее положение не может учитывать специфику работы всех отраслей и дает лишь обобщенное представление. Интервал ночного времени с 22: 00 до 06: 00 не учитывает специфику работы в такси. В нашем сервисе свободный график работы. Соответственно, компанией выбран период времени, когда работа водителя несет больше расходов на исполнение заказов, чем днем. По этой причине общая сумма заказа на 20% выше именно с 00: 00 до 06: 00. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Почему часть населенных пунктов относятся к межгороду, а другая к городу ? Почему межгород начинается с адреса, а не границы черты города?</t>
+          <t>Почему часть населенных пунктов относятся к межгороду, а другая к городу? Почему межгород начинается с адреса, а не границы черты города?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. При утверждении актуальной тарифной сетки в Сервисе были учтены множество параметров. Тарифная сетка не ориентируется на административную границу города. Распределение населенных пунктов к городскому и межгородскому тарифу основано на совокупности данных о пассажиропотоке, отдаленности населенных пунктов, итоговой суммы поездки, которая сбалансирована относительно рыночной стоимости поездки по данному направлению. Подробнее изучить можете по карте. Ссылка: https://aparutaxi.kz/карта_городского_тарифа_ука?lang=ru.
-С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. При утверждении актуальной тарифной сетки в Сервисе были учтены множество параметров. Тарифная сетка не ориентируется на административную границу города. Распределение населенных пунктов к городскому и межгородскому тарифу основано на совокупности данных о пассажиропотоке, отдаленности населенных пунктов, итоговой суммы поездки, которая сбалансирована относительно рыночной стоимости поездки по данному направлению. Подробнее изучить можете по карте. Ссылка: https: //aparutaxi. kz/карта_городского_тарифа_ука? lang=ru. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -910,15 +868,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>по каким правилам выставляется неустойка</t>
+          <t>По каким правилам выставляется неустойка</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Неустойка выставляется в двух случаях:
-1. Водитель принял заказ, проехал не менее 200 метров и включил таксометр, а затем пассажир отказался.
-2. Водитель принял заказ, проехал менее 200 метров, включил таксометр и ожидал более 3 минут, а пассажир отменил заказ.
-Размер неустойки зависит от класса автомобиля и типа заказа, минимальная сумма составляет 300 тенге.</t>
+          <t>Неустойка выставляется в двух случаях: 1. Водитель принял заказ, проехал не менее 200 метров и включил таксометр, а затем пассажир отказался. 2. Водитель принял заказ, проехал менее 200 метров, включил таксометр и ожидал более 3 минут, а пассажир отменил заказ. Размер неустойки зависит от класса автомобиля и типа заказа, минимальная сумма составляет 300 тенге.</t>
         </is>
       </c>
     </row>
@@ -930,8 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Здравствуйте.В системе АПАРУ есть неустойки, их размер зависит от тарифа. Неустойки накладываются на пассажира системой автоматически. В случае заказов с безналичной оплатой - сумма списывается с карты и поступает на безналичный баланс водителя. В случае с оплатой наличными - неустойка накладывается на аккаунт пассажира, и пока она не будет оплачена пассажир не сможет вновь вызвать такси.
-По истечению 3 минут, если клиент не вышел и не отвечает на звонок, вы имеете право завершить заказ как “Отказ клиента” либо как “Клиент не ответил на звонок” во втором случае. В таких случаях единицы вам будут возвращены. С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. В системе АПАРУ есть неустойки, их размер зависит от тарифа. Неустойки накладываются на пассажира системой автоматически. В случае заказов с безналичной оплатой - сумма списывается с карты и поступает на безналичный баланс водителя. В случае с оплатой наличными - неустойка накладывается на аккаунт пассажира, и пока она не будет оплачена пассажир не сможет вновь вызвать такси. По истечению 3 минут, если клиент не вышел и не отвечает на звонок, вы имеете право завершить заказ как “Отказ клиента” либо как “Клиент не ответил на звонок” во втором случае. В таких случаях единицы вам будут возвращены. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -943,8 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Возможно на карте клиента недостаточно средств/присутствуют лимиты или другие ограничения банка. В таком случае, на аккаунт клиента будет создана задолженность. Когда он попытается вызвать машину с помощью оплаты картой в следующий раз, ему будет предъявлена неустойка для обязательной оплаты. 
-</t>
+          <t>Возможно на карте клиента недостаточно средств/присутствуют лимиты или другие ограничения банка. В таком случае, на аккаунт клиента будет создана задолженность. Когда он попытается вызвать машину с помощью оплаты картой в следующий раз, ему будет предъявлена неустойка для обязательной оплаты.</t>
         </is>
       </c>
     </row>
@@ -968,19 +921,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Районы повышенной стоимости - это зоны, где будет использована повышенная оплата за каждый километр. Они были отобраны в ходе нашей проверки как самые проблематичные зоны, где дорожное покрытие неровное и неасфальтированное, что затрудняет движение транспортного средства и загрязняет автомобиль. Граница дачных массивов и города проходит там, где есть следующие условные обозначения: переход асфальтированной и ровной дороги в неасфальтированную и неровную, расположены ворота в дачный массив, обозначения с названием дачного кооператива в табличке и т.п. Для более подробной информации вы можете изучить карту: Правовая информация - Районы повышенной стоимости в г. Усть-Каменогорск. К примеру, если у вас заказ из Дворца спорта до дач на Аблакетке, то стоимость поездки по городу будет считаться по тарифу Эконом, Оптимал, Комфорт или Универсал (в зависимости от заказа) и при пересечении границы таксометр автоматически будет считать километраж по повышенной стоимости. Вам ничего не нужно переключать. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Районы повышенной стоимости - это зоны, где будет использована повышенная оплата за каждый километр. Они были отобраны в ходе нашей проверки как самые проблематичные зоны, где дорожное покрытие неровное и неасфальтированное, что затрудняет движение транспортного средства и загрязняет автомобиль. Граница дачных массивов и города проходит там, где есть следующие условные обозначения: переход асфальтированной и ровной дороги в неасфальтированную и неровную, расположены ворота в дачный массив, обозначения с названием дачного кооператива в табличке и т. п. Для более подробной информации вы можете изучить карту: Правовая информация - Районы повышенной стоимости в г. Усть-Каменогорск. К примеру, если у вас заказ из Дворца спорта до дач на Аблакетке, то стоимость поездки по городу будет считаться по тарифу Эконом, Оптимал, Комфорт или Универсал (в зависимости от заказа) и при пересечении границы таксометр автоматически будет считать километраж по повышенной стоимости. Вам ничего не нужно переключать. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Можно ли добавить в список районов повышенной стоимости? НАПРАВИТЬ СПЕЦИАЛИСТУ </t>
+          <t>Можно ли добавить в список районов повышенной стоимости? НАПРАВИТЬ СПЕЦИАЛИСТУ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Здравствуйте. Благодарим за ваше обращение. Укажите, пожалуйста, причины, по которым вами названный район должен относиться к районам повышенной стоимости. На основании вашего ответа мы проведем анализ и примем решение о включении того или иного района в список. С уважением, команда Апару </t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Укажите, пожалуйста, причины, по которым вами названный район должен относиться к районам повышенной стоимости. На основании вашего ответа мы проведем анализ и примем решение о включении того или иного района в список. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -992,8 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Неустойки пассажиру за отмену заказа накладываются автоматически. При этом учитывается несколько факторов: время удаления заказа, местоположение водителя во время отмены заказа, пройденный путь до пассажира. Если неустойка не наложилась автоматически, это означает что не пройден какой-то порог по одному или нескольким критериям.
- </t>
+          <t>Неустойки пассажиру за отмену заказа накладываются автоматически. При этом учитывается несколько факторов: время удаления заказа, местоположение водителя во время отмены заказа, пройденный путь до пассажира. Если неустойка не наложилась автоматически, это означает что не пройден какой-то порог по одному или нескольким критериям.</t>
         </is>
       </c>
     </row>
@@ -1005,10 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Теперь водители могут напрямую влиять на расценки в системе.
-Для этого нажмите на значок «Т» в Ленте заказов , появится окно, где вы сможете указать желаемые расценки. Укажите минималку, стоимость километра, стоимость времени ожидания и сколько должно быть предоплаченных километров. Ваше предложение будет учтено системой автоматически при следующем обновлении тарифа.
-Таксометр перенастраивается каждую субботу, отражая предложения водителей. 
-Важно! Чтобы изменения вступили в силу, нужно достаточное количество голосов от водителей. Мало голосов — малые изменения.С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Теперь водители могут напрямую влиять на расценки в системе. Для этого нажмите на значок «Т» в Ленте заказов, появится окно, где вы сможете указать желаемые расценки. Укажите минималку, стоимость километра, стоимость времени ожидания и сколько должно быть предоплаченных километров. Ваше предложение будет учтено системой автоматически при следующем обновлении тарифа. Таксометр перенастраивается каждую субботу, отражая предложения водителей. Важно! Чтобы изменения вступили в силу, нужно достаточное количество голосов от водителей. Мало голосов — малые изменения. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1020,12 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Заказ с пометкой платежной карты означает, что клиент собирается оплатить поездку картой. Пассажир прикрепляет свою карту к приложению и по завершению поездки переведет вам сумму самостоятельно согласно показаниям таксометра. Полученные средства поступят на ваш безналичный баланс. 
-Безналичные средства вы можете перевести:
-на баланс Апару 
-на баланс телефона/ виртуальную карту
-Накопленную сумму в безналичном балансе вы можете выводить частями. Например, на безналичном балансе у вас 4000 тенге, вы можете часть отправить на баланс Апару, а другую часть на баланс телефона/виртуальную карту
-Под надписью «Выберите способ перевода» есть графа, где вы можете корректировать сумму. С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Заказ с пометкой платежной карты означает, что клиент собирается оплатить поездку картой. Пассажир прикрепляет свою карту к приложению и по завершению поездки переведет вам сумму самостоятельно согласно показаниям таксометра. Полученные средства поступят на ваш безналичный баланс. Безналичные средства вы можете перевести: на баланс Апару на баланс телефона/ виртуальную карту Накопленную сумму в безналичном балансе вы можете выводить частями. Например, на безналичном балансе у вас 4000 тенге, вы можете часть отправить на баланс Апару, а другую часть на баланс телефона/виртуальную карту Под надписью «Выберите способ перевода» есть графа, где вы можете корректировать сумму. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -1037,27 +981,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.
-Для вывода средств на баланс Апару переходите по следующей схеме:Профиль - Управление балансом - Безналичный баланс (по безналу) - Выбрать способ перевода - На баланс Апару - Ввести необходимую сумму в нижнюю графу - Перевести
-С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Для вывода средств на баланс Апару переходите по следующей схеме: Профиль - Управление балансом - Безналичный баланс (по безналу) - Выбрать способ перевода - На баланс Апару - Ввести необходимую сумму в нижнюю графу - Перевести С уважением, команда Апару</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Почему удерживаются 3,7 % от стоимости заказа при безналичном расчете?</t>
+          <t>Почему удерживаются 3, 7 % от стоимости заказа при безналичном расчете?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.
-При оплате заказа картой в транзакции принимают участие 3 стороны: 
-Отправитель - это платежная карта пассажира, 
-Получатель - это безналичный баланс водителя 
-Посредники - это платежные системы, которые переводят денежные средства с отправителя до получателя. 
-В случае оплаты за поездку в AparuTaxi посредниками являются PaySage (комиссия = 3,5%) и агент Апару (комиссия = 0.2%). В сумме это составляет 3,7% комиссии. Комиссия Апару за заказ не включает в себя расходы за услуги платежных систем. На данный момент комиссия в 3,7% - это минимальная комиссия на рынке за перевод безналичных денег. Перевод средств происходит исключительно через платежные системы. А комиссия является источником их дохода. 
-С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. При оплате заказа картой в транзакции принимают участие 3 стороны: Отправитель - это платежная карта пассажира, Получатель - это безналичный баланс водителя Посредники - это платежные системы, которые переводят денежные средства с отправителя до получателя. В случае оплаты за поездку в AparuTaxi посредниками являются PaySage (комиссия = 3, 5%) и агент Апару (комиссия = 0. 2%). В сумме это составляет 3, 7% комиссии. Комиссия Апару за заказ не включает в себя расходы за услуги платежных систем. На данный момент комиссия в 3, 7% - это минимальная комиссия на рынке за перевод безналичных денег. Перевод средств происходит исключительно через платежные системы. А комиссия является источником их дохода. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -1069,10 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.
-Вы можете принимать на исполнение заказы как с наличной, так и безналичной оплатой. Разница лишь в виде денежных средств - в бумажном или электронном эквиваленте. Плюсы принятия наличных средств вам хорошо известны. Преимущества безналичной оплаты для водителя - это отсутствие необходимости искать сдачу, вывод средств на баланс Апару, на банковскую карту, либо на QIWI-кошелек, где вы можете оплатить многие услуги. 
-На самом деле оплата заказа картой - это удобство для пассажира. Если пассажиру удобно, значит он будет заказывать такси в нашем сервисе - а это развитие нашей с вами деятельности. 
-С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Вы можете принимать на исполнение заказы как с наличной, так и безналичной оплатой. Разница лишь в виде денежных средств - в бумажном или электронном эквиваленте. Плюсы принятия наличных средств вам хорошо известны. Преимущества безналичной оплаты для водителя - это отсутствие необходимости искать сдачу, вывод средств на баланс Апару, на банковскую карту, либо на QIWI-кошелек, где вы можете оплатить многие услуги. На самом деле оплата заказа картой - это удобство для пассажира. Если пассажиру удобно, значит он будет заказывать такси в нашем сервисе - а это развитие нашей с вами деятельности. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -1084,9 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.
-У пассажира есть возможность повторно нажать на кнопку «Оплатить с карты» и ввести недостающую сумму поездки. Данная операция доступна на форме заказа или из истории заказов. 
-С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. У пассажира есть возможность повторно нажать на кнопку «Оплатить с карты» и ввести недостающую сумму поездки. Данная операция доступна на форме заказа или из истории заказов. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -1098,11 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Расхождение стоимости поездки возможно в следующих двух случаях:
-Таксометр передает информацию по стоимости поездки приложению пассажира. Передача информации осуществляется в течение нескольких секунд. Просим вас дождаться уравнения суммы на обеих устройствах или же оплатить стоимость согласно первоисточнику - таксометру. 
-При полном или частичном отсутствии интернета у пассажира, либо при частых сворачиваниях (выход и вход в приложение) приложения со стороны клиента может возникнуть потеря данных. Это значит, что в приложении у клиента может отображаться устаревшая сумма. Корректную расценку клиент сможет увидеть после завершения заказа со стороны водителя. 
-В обоих случаях рекомендуем руководствоваться стоимостью, отображенной на таксометре. 
-С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Расхождение стоимости поездки возможно в следующих двух случаях: Таксометр передает информацию по стоимости поездки приложению пассажира. Передача информации осуществляется в течение нескольких секунд. Просим вас дождаться уравнения суммы на обеих устройствах или же оплатить стоимость согласно первоисточнику - таксометру. При полном или частичном отсутствии интернета у пассажира, либо при частых сворачиваниях (выход и вход в приложение) приложения со стороны клиента может возникнуть потеря данных. Это значит, что в приложении у клиента может отображаться устаревшая сумма. Корректную расценку клиент сможет увидеть после завершения заказа со стороны водителя. В обоих случаях рекомендуем руководствоваться стоимостью, отображенной на таксометре. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. За выполнение корпаративных заказов
-- получите по +8 баллов за каждый выполненный 1 заказ корпаративного клиента, эти баллы действительны в течении 14 дней.
-- оплата заказа гарантирована АПАРУ
-- оплата безналичным способом, вам не нужно будет искать сдачу клиенту
-- при отказе клиента от заказа водителю переводится посадочная стоимость поездки
-- удобные способы вывода средств: на баланс АПАРУ, на баланс телефона/ виртуальную карту. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. За выполнение корпаративных заказов - получите по +8 баллов за каждый выполненный 1 заказ корпаративного клиента, эти баллы действительны в течении 14 дней. - оплата заказа гарантирована АПАРУ - оплата безналичным способом, вам не нужно будет искать сдачу клиенту - при отказе клиента от заказа водителю переводится посадочная стоимость поездки - удобные способы вывода средств: на баланс АПАРУ, на баланс телефона/ виртуальную карту. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Для вывода средств перейдите Меню - Профиль - Управление балансом - Безналичный счет по корпоративным заказам, в открытом окне нажмите "Далее" и выберите для вас удобный способ "Куда перевести"(Баланс АПАРУ или баланс телефона / виртуальная карта), после нажмите "Запросить". При переводе средств сумма поступит моментально.С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Для вывода средств перейдите Меню - Профиль - Управление балансом - Безналичный счет по корпоративным заказам, в открытом окне нажмите "Далее" и выберите для вас удобный способ "Куда перевести"(Баланс АПАРУ или баланс телефона / виртуальная карта), после нажмите "Запросить". При переводе средств сумма поступит моментально. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОТПРАВЛЯЕМ ЗАПРОС НА СПЕЦИАЛИСТА </t>
+          <t>ОТПРАВЛЯЕМ ЗАПРОС НА СПЕЦИАЛИСТА</t>
         </is>
       </c>
     </row>
@@ -1179,10 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Уведомление о начале осуществления деятельности по перевозке пассажиров и багажа такси дают вам приоритет +30 баллов в получении заказов. Чтобы их получить нужно:
-- Открыть ИП с деятельностью по перевозке пассажиров и багажа такси;
-- Обратиться в ЦОН (либо самостоятельно через сайт http://www.elicense.kz) и подать уведомление о начале деятельности в качестве перевозчика такси, после чего вы получаете уведомление о начале осуществления деятельности по перевозки пассажиров и багажа такси, которые предоставляете специалисту АПАРУ.
-Более подробную информацию вы можете получить по номеру: 1414 – единый контакт-центр Egov (в том числе ЦОНа). С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Уведомление о начале осуществления деятельности по перевозке пассажиров и багажа такси дают вам приоритет +30 баллов в получении заказов. Чтобы их получить нужно: - Открыть ИП с деятельностью по перевозке пассажиров и багажа такси; - Обратиться в ЦОН (либо самостоятельно через сайт http: //www. elicense. kz) и подать уведомление о начале деятельности в качестве перевозчика такси, после чего вы получаете уведомление о начале осуществления деятельности по перевозки пассажиров и багажа такси, которые предоставляете специалисту АПАРУ. Более подробную информацию вы можете получить по номеру: 1414 – единый контакт-центр Egov (в том числе ЦОНа). С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1194,20 +1113,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за обращение. У вас могут быть документы, подтверждающие то, что вы можете предоставлять услуги перевозок пассажиров и багажа. Однако, согласно Правилам
-перевозок пассажиров и багажа автомобильным транспортом (ст.11, пункт 211) нужно будет уведомить местные исполнительные органы района о начале деятельности в качестве перевозчика такси. Для этого необходимо получить уведомление в ЦОН. Когда данные органы будут уже уведомлены, вы можете осуществлять перевозку пассажиров согласно законодательству. С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за обращение. У вас могут быть документы, подтверждающие то, что вы можете предоставлять услуги перевозок пассажиров и багажа. Однако, согласно Правилам перевозок пассажиров и багажа автомобильным транспортом (ст. 11, пункт 211) нужно будет уведомить местные исполнительные органы района о начале деятельности в качестве перевозчика такси. Для этого необходимо получить уведомление в ЦОН. Когда данные органы будут уже уведомлены, вы можете осуществлять перевозку пассажиров согласно законодательству. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>как подкрепить уведомление и получить 30 баллов</t>
+          <t>Как подкрепить уведомление и получить 30 баллов</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. После подкрепления уведомления о начале осуществления деятельности по перевозке пассажиров и багажа такси вам начисляется 30 баллов к балльной системе и вы будете видеть заказы быстрее на 5 секунд. Для того, чтобы подкрепить уведомление зайдите во вкладку "Мои результаты" выберите пункт ваш приоритет-Расшифровка- за Наличие уведомления, в полях заполните даты начала и окончания действия уведомления и загрузите фрагмент снимка уведомления с пунктами 9-11. В 9 пункте указывается дата начала действия уведомления, в 10 пункте указывается дата окончания действия уведомления, в 11 пункте указывается ФИО заявителя, т.е. ваше ФИО. Как только специалист рассмотрит запрос, вам поступит уведомление о успешной обработке запроса или о наличии ошибки. Если поступит уведомление об ошибке, повторно пройдите процедуру с учетом рекомендаций в уведомлении. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. После подкрепления уведомления о начале осуществления деятельности по перевозке пассажиров и багажа такси вам начисляется 30 баллов к балльной системе и вы будете видеть заказы быстрее на 5 секунд. Для того, чтобы подкрепить уведомление зайдите во вкладку "Мои результаты" выберите пункт ваш приоритет-Расшифровка- за Наличие уведомления, в полях заполните даты начала и окончания действия уведомления и загрузите фрагмент снимка уведомления с пунктами 9-11. В 9 пункте указывается дата начала действия уведомления, в 10 пункте указывается дата окончания действия уведомления, в 11 пункте указывается ФИО заявителя, т. е. ваше ФИО. Как только специалист рассмотрит запрос, вам поступит уведомление о успешной обработке запроса или о наличии ошибки. Если поступит уведомление об ошибке, повторно пройдите процедуру с учетом рекомендаций в уведомлении. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1219,22 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Шаг 1.
-Вы являетесь ИП и хотите отправить уведомление в отдел ЖКХ для получения уведомления, то переходите на сайт: http://www.elicense.kz.
-Если вы ранее регистрировались на данном сайте, то нажмите ВОЙТИ, если нет, то нажмите ЗАРЕГИСТРИРОВАТЬСЯ: заполните бланк (ИИН, придумать пароль, подтвердить пароль или укажите ЭЦП), поставьте галочку на принятии соглашения.
-Шаг 2.
-Перейдите в раздел ТРАНСПОРТ→ Уведомительный порядок → Уведомление о начале осуществления деятельности по перевозке пассажиров и багажа такси.
-Шаг 3.
-Нажимаете ЗАКАЗАТЬ УСЛУГУ ОНЛАЙН → выбираете лицензиара: ВКО, нажимаете на стрелку → выбирете Отдел ЖКХ, пассажирского транспорта и автомобильных дорог г.Усть-Каменогорск. 
-Шаг 4.
-Самостоятельно заполняете ваши данные. 
-Шаг 5.
-Подписываете заполненное уведомление вашей ЭЦП и ждете ответа на заявку. Запрос обрабатывается до 1 рабочего дня. Информация об обработке поступит на номер телефона и эл. почту.
-Шаг 6.
-После получения одобрения заходите на сайт http://www.elicense.kz под вашим ЭЦП. На правом верхнем углу будет ваше ФИО. Нажимаете и выбираете Мои разрешительные документы → Уведомления. Выбираете из списка последний документ, отправленный в отдел ЖКХ под видом деятельности Перевозка пассажиров и багажа. Нажимаете на знак Лупа → Скачать уведомление. 
-Шаг 7.
-В приложении Апару во вкладке "Мои результаты" выберите пункт ваш приоритет-Расшифровка-Наличие уведомления, в полях заполните даты начала и окончания действия уведомления и загрузите снимок фрагмента уведомления с пунктами 9-11. В 9-10 пунктах указывается дата начала и окончания действия уведомления, в 11 пункте - ФИО заявителя, т.е. ваше ФИО. Как только специалист рассмотрит запрос, вам поступит уведомление о успешной обработке запроса или о наличии ошибки. При наличи ошибки, повторно пройдите процедуру с учетом рекомендаций в уведомлении. 
-С уважением, команда Апару</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Шаг 1. Вы являетесь ИП и хотите отправить уведомление в отдел ЖКХ для получения уведомления, то переходите на сайт: http: //www. elicense. kz. Если вы ранее регистрировались на данном сайте, то нажмите ВОЙТИ, если нет, то нажмите ЗАРЕГИСТРИРОВАТЬСЯ: заполните бланк (ИИН, придумать пароль, подтвердить пароль или укажите ЭЦП), поставьте галочку на принятии соглашения. Шаг 2. Перейдите в раздел ТРАНСПОРТ→ Уведомительный порядок → Уведомление о начале осуществления деятельности по перевозке пассажиров и багажа такси. Шаг 3. Нажимаете ЗАКАЗАТЬ УСЛУГУ ОНЛАЙН → выбираете лицензиара: ВКО, нажимаете на стрелку → выбирете Отдел ЖКХ, пассажирского транспорта и автомобильных дорог г. Усть-Каменогорск. Шаг 4. Самостоятельно заполняете ваши данные. Шаг 5. Подписываете заполненное уведомление вашей ЭЦП и ждете ответа на заявку. Запрос обрабатывается до 1 рабочего дня. Информация об обработке поступит на номер телефона и эл. почту. Шаг 6. После получения одобрения заходите на сайт http: //www. elicense. kz под вашим ЭЦП. На правом верхнем углу будет ваше ФИО. Нажимаете и выбираете Мои разрешительные документы → Уведомления. Выбираете из списка последний документ, отправленный в отдел ЖКХ под видом деятельности Перевозка пассажиров и багажа. Нажимаете на знак Лупа → Скачать уведомление. Шаг 7. В приложении Апару во вкладке "Мои результаты" выберите пункт ваш приоритет-Расшифровка-Наличие уведомления, в полях заполните даты начала и окончания действия уведомления и загрузите снимок фрагмента уведомления с пунктами 9-11. В 9-10 пунктах указывается дата начала и окончания действия уведомления, в 11 пункте - ФИО заявителя, т. е. ваше ФИО. Как только специалист рассмотрит запрос, вам поступит уведомление о успешной обработке запроса или о наличии ошибки. При наличи ошибки, повторно пройдите процедуру с учетом рекомендаций в уведомлении. С уважением, команда Апару</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. В АПАРУ на постоянной основе производится автоматизированная проверка актуальности наличия ИП у водителей, загрузивших уведомление, и при обнаружении таких водителей у них снимается отметка о загрузке уведомления.С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. В АПАРУ на постоянной основе производится автоматизированная проверка актуальности наличия ИП у водителей, загрузивших уведомление, и при обнаружении таких водителей у них снимается отметка о загрузке уведомления. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1258,15 +1161,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.Каждая звезда — это оценка «Мне понравилось» от пассажира. В профиле в пункте «Мои результаты» отображены звёзды только за последний календарный месяц. Из-за этого можно наблюдать эффект, когда звёзды исчезают со страницы,- это значит, что срок их показа истёк. Не смотря на это, положительная оценка всё равно сохраняется в базе данных.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Каждая звезда — это оценка «Мне понравилось» от пассажира. В профиле в пункте «Мои результаты» отображены звёзды только за последний календарный месяц. Из-за этого можно наблюдать эффект, когда звёзды исчезают со страницы, - это значит, что срок их показа истёк. Не смотря на это, положительная оценка всё равно сохраняется в базе данных. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">ЧТо означает значок зеленого человечкав ленте заказов, постоянный клиент? </t>
+          <t>ЧТо означает значок зеленого человечкав ленте заказов, постоянный клиент?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1283,8 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Оценки от пассажиров влияют на ваш приоритет в положительную сторону. Чем больше у вас пололжительных оценок - тем выше приоритет. Каждая 1 положительная оценка добавляет 8 баллов к вашему приоритету. 
-По поводу рекомендаций, каждая из них в отдельности - НЕ влияет на приоритет водителя в системе, а служит для вас лишь обратной связью от пассажиров - на что обратить внимание чтобы улучшить свой сервис и получать еще больше положительных оценок. Но, бывают водители, на которых поступают много однотипных рекомендаций от разных клиентов, например все жалуются на грубость водителя. И, если появляется 3 и более одинаковых рекомендаций от разных клиентов, то такие водители фиксируются системой и с ними проводится индивидуальная работа. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Оценки от пассажиров влияют на ваш приоритет в положительную сторону. Чем больше у вас пололжительных оценок - тем выше приоритет. Каждая 1 положительная оценка добавляет 8 баллов к вашему приоритету. По поводу рекомендаций, каждая из них в отдельности - НЕ влияет на приоритет водителя в системе, а служит для вас лишь обратной связью от пассажиров - на что обратить внимание чтобы улучшить свой сервис и получать еще больше положительных оценок. Но, бывают водители, на которых поступают много однотипных рекомендаций от разных клиентов, например все жалуются на грубость водителя. И, если появляется 3 и более одинаковых рекомендаций от разных клиентов, то такие водители фиксируются системой и с ними проводится индивидуальная работа. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. За выполнение заказа с надписью "+Жетон", исполнителю начисляется один жетон. Требования к выполнению заказа: заказ обязательно нужно закрыть, как выполнен и пройденный путь должен быть не менее 500 метров. 
-Жетон - это условная единица, которую можно обменять на преимущества в Системе:
-1 жетон - возможность уйти в минус по балансу, при нехватке единиц (только для подтвержденных водителей).
-5 жетонов - подключение режима «Форсаж» на 12 часов, 3 жетона - подключение режима «Форсаж» на 6 часов.
-Режим «Форсаж» дает возможность видеть заказы в ленте на 15 секунд быстрее, чем другие водители.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. За выполнение заказа с надписью "+Жетон", исполнителю начисляется один жетон. Требования к выполнению заказа: заказ обязательно нужно закрыть, как выполнен и пройденный путь должен быть не менее 500 метров. Жетон - это условная единица, которую можно обменять на преимущества в Системе: 1 жетон - возможность уйти в минус по балансу, при нехватке единиц (только для подтвержденных водителей). 5 жетонов - подключение режима «Форсаж» на 12 часов, 3 жетона - подключение режима «Форсаж» на 6 часов. Режим «Форсаж» дает возможность видеть заказы в ленте на 15 секунд быстрее, чем другие водители. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1337,33 +1233,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Если вы потратили жетон для взятия заказа на исполнение при недостаточной сумме на балансе и клиент отказался или не ответил на звонок, после процедуры подтверждения, восстановлению подлежат единицы в размере равной стоимости заказа с наценкой на момент взятия на исполнение. Жетон при этом не восстанавливается, так как обратный обмен единиц на жетон не предусмотрен системой.
-С уважением. команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Если вы потратили жетон для взятия заказа на исполнение при недостаточной сумме на балансе и клиент отказался или не ответил на звонок, после процедуры подтверждения, восстановлению подлежат единицы в размере равной стоимости заказа с наценкой на момент взятия на исполнение. Жетон при этом не восстанавливается, так как обратный обмен единиц на жетон не предусмотрен системой. С уважением. команда АПАРУ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Что такое Автовзятие заказов в АПАРУ </t>
+          <t>Что такое Автовзятие заказов в АПАРУ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Автовзятие - функция автоматически взятия заказов, т.е. при автовзятии водителю не нужно выбирать заказы, система сама автоматически подберет заказ с ближайшего расстояния.
-ВАЖНО: При автовзятие заказы поступают согласно приоритета водителя.С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Автовзятие - функция автоматически взятия заказов, т. е. при автовзятии водителю не нужно выбирать заказы, система сама автоматически подберет заказ с ближайшего расстояния. ВАЖНО: При автовзятие заказы поступают согласно приоритета водителя. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Что такое Ареал </t>
+          <t>Что такое Ареал</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Ареал- это функция выделения расстояния в нужной приоритетной местности, т.е. если водитель хочет выполнять заказы только в определенных районах города, то он может выделить на карте эту область и заказы будут автоматически подбираться только в этой выделенной области.С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Ареал- это функция выделения расстояния в нужной приоритетной местности, т. е. если водитель хочет выполнять заказы только в определенных районах города, то он может выделить на карте эту область и заказы будут автоматически подбираться только в этой выделенной области. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1382,24 +1276,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>При действующем заказе предлагают новый заказ? 
-(функция предложения заказов таксометра)</t>
+          <t>При действующем заказе предлагают новый заказ? (функция предложения заказов таксометра)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Новая полезная функция в приложении для пользователей IOS — "Предложение заказов в таксометре"
- Когда вы приближаетесь к конечному пункту действующего заказа, система предлагает вам новый заказ поблизости.
-В уведомлении отображается:
-✔️Расстояние нового заказа от точки прибытия
-✔️Начальный и конечный адрес
-✔️Комментарий (при его наличии)
-✔️Временная наценка (при её наличии)
-✔️Класс авто
- Ознакомившись с данными предложенного заказа, вы можете принять или отклонить его.
-Отображается уведомление в течении 30 секунд, если вы не сделали выбор — оно исчезает автоматически.
- Эта функция позволяет выполнять заказы без перерывов и экономить ваше время!
- Для пользователей Android "Предложение заказов в таксометре" доступна в новой версии приложения. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Новая полезная функция в приложении для пользователей IOS — "Предложение заказов в таксометре" Когда вы приближаетесь к конечному пункту действующего заказа, система предлагает вам новый заказ поблизости. В уведомлении отображается: ✔️Расстояние нового заказа от точки прибытия ✔️Начальный и конечный адрес ✔️Комментарий (при его наличии) ✔️Временная наценка (при её наличии) ✔️Класс авто Ознакомившись с данными предложенного заказа, вы можете принять или отклонить его. Отображается уведомление в течении 30 секунд, если вы не сделали выбор — оно исчезает автоматически. Эта функция позволяет выполнять заказы без перерывов и экономить ваше время! Для пользователей Android "Предложение заказов в таксометре" доступна в новой версии приложения. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1423,8 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Проверьте, обновлено ли приложение. Зайдите в Google Play/App Store, найдите приложение APARU и если кнопка "Обновить" активна, то нажмите на неё, дождитесь завершения обновления и запустите обновлённое приложение. Также рекомендуем вам пройти все шаги в инструкции по настройке GPS-данных: http://aparutaxi.kz/p/nastroi_gps.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Проверьте, обновлено ли приложение. Зайдите в Google Play/App Store, найдите приложение APARU и если кнопка "Обновить" активна, то нажмите на неё, дождитесь завершения обновления и запустите обновлённое приложение. Также рекомендуем вам пройти все шаги в инструкции по настройке GPS-данных: http: //aparutaxi. kz/p/nastroi_gps. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>как переключить таксометр на межгород</t>
+          <t>Как переключить таксометр на межгород</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1460,12 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Последовательно проверьте есть ли соединение с интернетом, правильно ли указан город в профиле приложения, правильно ли указан активный автомобиль, проверьте активированы ли функции показа заказов, проверьте обновлено ли приложение до последней версии.
-Шаг 1 - Обновите приложение до самой последней версии.
-Шаг 2 - Удалите приложение AparuTaxi c вашего устройства и переустановите его
-Шаг 3 - Очистите кэш и сбросить данные. Для этого пройдите в Настройки телефона - Приложения - AparuTaxi - Память - Очистить кэш, а данные Сбросить 
-Шаг 4 - Выключите энергосбережение. Откройте приложение Настройки - Перейдите в раздел Энергосбережение - Отключите
-Шаг 5 - Включите разрешение на местоположение. Для этого пройдите в Настройки телефона - Приложения - AparuTaxi - Геопозиция - Всегда. С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Последовательно проверьте есть ли соединение с интернетом, правильно ли указан город в профиле приложения, правильно ли указан активный автомобиль, проверьте активированы ли функции показа заказов, проверьте обновлено ли приложение до последней версии. Шаг 1 - Обновите приложение до самой последней версии. Шаг 2 - Удалите приложение AparuTaxi c вашего устройства и переустановите его Шаг 3 - Очистите кэш и сбросить данные. Для этого пройдите в Настройки телефона - Приложения - AparuTaxi - Память - Очистить кэш, а данные Сбросить Шаг 4 - Выключите энергосбережение. Откройте приложение Настройки - Перейдите в раздел Энергосбережение - Отключите Шаг 5 - Включите разрешение на местоположение. Для этого пройдите в Настройки телефона - Приложения - AparuTaxi - Геопозиция - Всегда. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -1477,20 +1353,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Здравствуйте. Заказы в ленту поступают строго по правилам системы, которые распространяются на всех водителей без исключения. Если вам кажется, что заказы поступают со значительной задержкой, то, пожалуйста, настройте свое устройство согласно инструкции по этой ссылке http://aparutaxi.kz/p/nastroi_gps .
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Заказы в ленту поступают строго по правилам системы, которые распространяются на всех водителей без исключения. Если вам кажется, что заказы поступают со значительной задержкой, то, пожалуйста, настройте свое устройство согласно инструкции по этой ссылке http: //aparutaxi. kz/p/nastroi_gps. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">почему в ленте присутствуют выполненные заказы? зря баланс на них уходит.  ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ </t>
+          <t>Почему в ленте присутствуют выполненные заказы? зря баланс на них уходит. ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.Выполненным считается заказ, в котором водитель нажал отметку "Выполнен". Такие заказы в ленте не отображаются. В вашем случае, скорее всего, попался некорректно переданный другим водителем заказ. Рекомендуем вам оформить жалобу за ложную передачу заказа на предыдущего водителя. Укажите в жалобе, пожалуйста, детали заказа - дата и адрес и.т.д. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Выполненным считается заказ, в котором водитель нажал отметку "Выполнен". Такие заказы в ленте не отображаются. В вашем случае, скорее всего, попался некорректно переданный другим водителем заказ. Рекомендуем вам оформить жалобу за ложную передачу заказа на предыдущего водителя. Укажите в жалобе, пожалуйста, детали заказа - дата и адрес и. т. д. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1502,20 +1377,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Количество нетрезвых пассажиров в выходные и праздничные дни действительно возрастает. Все же нетрезвый пассажир - не обязательно агрессивный пассажир и любой наш пассажир хоть раз вызывал такси будучи нетрезвым, а отказывая в услуге пассажиру мы с вами рискуем лишиться нетрезвого пассажира в выходные и трезвого пассажира в будние дни. Поэтому проявите, пожалуйста, лояльность и терпимость к нетрезвым пассажирам.
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Количество нетрезвых пассажиров в выходные и праздничные дни действительно возрастает. Все же нетрезвый пассажир - не обязательно агрессивный пассажир и любой наш пассажир хоть раз вызывал такси будучи нетрезвым, а отказывая в услуге пассажиру мы с вами рискуем лишиться нетрезвого пассажира в выходные и трезвого пассажира в будние дни. Поэтому проявите, пожалуйста, лояльность и терпимость к нетрезвым пассажирам. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">необоснованная передача заказа </t>
+          <t>Необоснованная передача заказа</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Согласно инструкции для Исполнителей, передавать заказ вы вправе, если остановила дорожная полиция, произошло ДТП, возникли технические неполадки автомобиля или по состоянию здоровья. Дополнительно, передавать заказ можно до 3-х минут после взятия на исполнение. Если вы взяли заказ, но еще не доехали до клиента, чтобы другой водитель взял заказ на исполнение, нажимаете кнопку «Передать другому».Так, заказ возвращается в Ленту Заказов вместе с информацией о том, кто передал Заказ. Если вы уже взяли заказ на исполнение и клиент уже сел в машину, передать заказ вы сможете только если свяжитесь с технической поддержкой и сообщите об этом. Далее оператор закроет ваш Заказ и зарегистрирует новый Заказ с актуальным адресом местонахождения Клиента. В остальных случаях, вам необходимо выполнить заказ. Спасибо за понимание. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Согласно инструкции для Исполнителей, передавать заказ вы вправе, если остановила дорожная полиция, произошло ДТП, возникли технические неполадки автомобиля или по состоянию здоровья. Дополнительно, передавать заказ можно до 3-х минут после взятия на исполнение. Если вы взяли заказ, но еще не доехали до клиента, чтобы другой водитель взял заказ на исполнение, нажимаете кнопку «Передать другому». Так, заказ возвращается в Ленту Заказов вместе с информацией о том, кто передал Заказ. Если вы уже взяли заказ на исполнение и клиент уже сел в машину, передать заказ вы сможете только если свяжитесь с технической поддержкой и сообщите об этом. Далее оператор закроет ваш Заказ и зарегистрирует новый Заказ с актуальным адресом местонахождения Клиента. В остальных случаях, вам необходимо выполнить заказ. Спасибо за понимание. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1527,20 +1401,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Работая не первый год в сфере такси, вы лучше нас осведомлены о том, что клиенты выбирают сервис, который отвечает их требованиям. Если для одного пассажира причиной выбрать наш сервис является быстрая подача и наличие машин в каждом районе города, то для другого пассажира важна работа водителя: доброжелательность, предоставление комфортных условий поездки, честность и т.д. Заказ, принятый на исполнение и имеющий городской маршрут, должен быть выполнен вами. Отказаться или передать заказ вы можете в случае возникновения непреодолимых препятствий для исполнения: остановили сотрудники ГАИ, автомобиль вышел из строя, ваше состояние здоровья резко ухудшилось.Поэтому каждый водитель должен стремиться к тому, чтобы после поездки с ним, пассажир был уверен в правильности своего выбора такси и был готов пользоваться услугами Апару в будущем. Призываем вас задуматься над тем, что проявив лишний раз понимание и любезность к пассажиру, вы совершаете вклад в свои заказы на завтра.
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Работая не первый год в сфере такси, вы лучше нас осведомлены о том, что клиенты выбирают сервис, который отвечает их требованиям. Если для одного пассажира причиной выбрать наш сервис является быстрая подача и наличие машин в каждом районе города, то для другого пассажира важна работа водителя: доброжелательность, предоставление комфортных условий поездки, честность и т. д. Заказ, принятый на исполнение и имеющий городской маршрут, должен быть выполнен вами. Отказаться или передать заказ вы можете в случае возникновения непреодолимых препятствий для исполнения: остановили сотрудники ГАИ, автомобиль вышел из строя, ваше состояние здоровья резко ухудшилось. Поэтому каждый водитель должен стремиться к тому, чтобы после поездки с ним, пассажир был уверен в правильности своего выбора такси и был готов пользоваться услугами Апару в будущем. Призываем вас задуматься над тем, что проявив лишний раз понимание и любезность к пассажиру, вы совершаете вклад в свои заказы на завтра. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>где мне отметить неверный адрес?</t>
+          <t>Где мне отметить неверный адрес?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Если вы взяли заказ и в нем обнаружилась ошибка, сообщите нам. При принятии заказа,в правом нижнем углу интерфейса есть специальная кнопка "Ошибка в заказе", нажав на которую вы уведомите нас об ошибке, отметив одну из причин некорректности заказа: "Адрес", "Тип автомобиля", "Номер телефона", "Направление (город-межгород)", "Не указано важное примечание", "Мошеннический заказ" и выберите как действовать дальше - или выполнить заказ, забрав клиента по правильному адресу, или отказаться. При отказе заказ с ошибкой будет удалён, а наш оператор перезвонит клиенту и перерегистрирует заказ. Единицы, потраченные на взятие заказа на исполнение будут восстановлены на балансе аккаунта. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Если вы взяли заказ и в нем обнаружилась ошибка, сообщите нам. При принятии заказа, в правом нижнем углу интерфейса есть специальная кнопка "Ошибка в заказе", нажав на которую вы уведомите нас об ошибке, отметив одну из причин некорректности заказа: "Адрес", "Тип автомобиля", "Номер телефона", "Направление (город-межгород)", "Не указано важное примечание", "Мошеннический заказ" и выберите как действовать дальше - или выполнить заказ, забрав клиента по правильному адресу, или отказаться. При отказе заказ с ошибкой будет удалён, а наш оператор перезвонит клиенту и перерегистрирует заказ. Единицы, потраченные на взятие заказа на исполнение будут восстановлены на балансе аккаунта. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1449,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Если клиент называет пункт назначения, то оператор обязательно указывает куда едет клиент. Но оператор не вправе обязать клиента называть пункт назначения. Нужно учитывать, что клиенту не всегда известен точный адрес или ему требуется посетить несколько мест. Зачастую клиенту попросту неудобно сообщать конечный адрес. По этим же причинам было решено отказаться от обязательного заполнения поля "Куда" в приложении.
-Вместе с тем, если клиент делает заказ по межгороду, то конечный пункт обязателен для заполнения. В случае, если клиент требует от вас увезти его в другой населённый пункт, т.е. он сделал заказ якобы по межгороду, но не указал при этом конечный пункт, то вы вправе отказаться от выполнения такого заказа. При этом рекомендуем вам оставаться вежливыми в обхождении с такими клиентами - просто попросите его создать новый заказ правильно, с указанием конечной точки.
-Вместе с тем, напоминаем, что согласно Публичной оферте, если вы взяли на исполнение внутригородской заказ, то обязаны его исполнить независимо от того указан конечный пункт или нет. Пользуясь сервисом Апару Такси вы всегда сможете найти удобный для вас заказ, в какой бы части города вы не находились.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Если клиент называет пункт назначения, то оператор обязательно указывает куда едет клиент. Но оператор не вправе обязать клиента называть пункт назначения. Нужно учитывать, что клиенту не всегда известен точный адрес или ему требуется посетить несколько мест. Зачастую клиенту попросту неудобно сообщать конечный адрес. По этим же причинам было решено отказаться от обязательного заполнения поля "Куда" в приложении. Вместе с тем, если клиент делает заказ по межгороду, то конечный пункт обязателен для заполнения. В случае, если клиент требует от вас увезти его в другой населённый пункт, т. е. он сделал заказ якобы по межгороду, но не указал при этом конечный пункт, то вы вправе отказаться от выполнения такого заказа. При этом рекомендуем вам оставаться вежливыми в обхождении с такими клиентами - просто попросите его создать новый заказ правильно, с указанием конечной точки. Вместе с тем, напоминаем, что согласно Публичной оферте, если вы взяли на исполнение внутригородской заказ, то обязаны его исполнить независимо от того указан конечный пункт или нет. Пользуясь сервисом Апару Такси вы всегда сможете найти удобный для вас заказ, в какой бы части города вы не находились. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клиент нанес ущерб в моем авто. Что делать? </t>
+          <t>Клиент нанес ущерб в моем авто. Что делать?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1610,20 +1480,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Если Клиент не оплатил поездку? </t>
+          <t>Если Клиент не оплатил поездку?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Если клиент не оплатил поездку, оставьте жалобу на клиента с помощью опции в заказе «Клиент не оплатил поездку». Если на клиента уже есть такие жалобы от других водителей, то в будущем его заказы будут помечены в ленте: «Есть жалобы на неоплату поездки, рекомендуется брать предоплату». При необходимости дальнейшего разбирательства вы можете подать заявление в правоохранительные органы.
-Напоминаем, что оформление статуса официального перевозчика даёт возможность защищать свои интересы в таких ситуациях на официальном уровне. Со своей стороны мы готовы по запросу от правоохранительных органов предоставить все необходимые данные по заказу и стоимости поездки. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Если клиент не оплатил поездку, оставьте жалобу на клиента с помощью опции в заказе «Клиент не оплатил поездку». Если на клиента уже есть такие жалобы от других водителей, то в будущем его заказы будут помечены в ленте: «Есть жалобы на неоплату поездки, рекомендуется брать предоплату». При необходимости дальнейшего разбирательства вы можете подать заявление в правоохранительные органы. Напоминаем, что оформление статуса официального перевозчика даёт возможность защищать свои интересы в таких ситуациях на официальном уровне. Со своей стороны мы готовы по запросу от правоохранительных органов предоставить все необходимые данные по заказу и стоимости поездки. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Клиент не оплатил поездку (если нет данных) ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ </t>
+          <t>Клиент не оплатил поездку (если нет данных) ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1640,12 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. У официального перевозчика пассажиров и багажа такси должно быть:
-1. "Уведомление о начале деятельности в качестве перевозчика пассажиров и багажа такси" с актуальным сроком действия
-2. Страховые документы (полисы) на автомобиль и на пассажиров
-3. Допуски на работу от механика и мед. сотрудника с актуальными датами.
-"Уведомление о начале деятельности в качестве перевозчика пассажиров и багажа такси" можно получить посредством портала "Электронного лицензирования" при наличии ИП (КХ, ТОО и т.д.) с соответствующим видом деятельности. Страхование автомобиля и пассажиров можно произвести в страховых организациях. Для получения допуска от механика и мед. сотрудника, нужно заключить договор на обслуживание с соответствующими организациями.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. У официального перевозчика пассажиров и багажа такси должно быть: 1. "Уведомление о начале деятельности в качестве перевозчика пассажиров и багажа такси" с актуальным сроком действия 2. Страховые документы (полисы) на автомобиль и на пассажиров 3. Допуски на работу от механика и мед. сотрудника с актуальными датами. "Уведомление о начале деятельности в качестве перевозчика пассажиров и багажа такси" можно получить посредством портала "Электронного лицензирования" при наличии ИП (КХ, ТОО и т. д. ) с соответствующим видом деятельности. Страхование автомобиля и пассажиров можно произвести в страховых организациях. Для получения допуска от механика и мед. сотрудника, нужно заключить договор на обслуживание с соответствующими организациями. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1657,36 +1521,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Если вы предупреждали клиента о истечении бесплатного времени ожидания и договаривались о дальнейшем платном ожидании, то значит решение ожидать более положенных 3 минут бесплатного ожидания было принято вами, поэтому мы не можем принудить клиента оплатить платное ожидание заказа, который не был выполнен.С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Если вы предупреждали клиента о истечении бесплатного времени ожидания и договаривались о дальнейшем платном ожидании, то значит решение ожидать более положенных 3 минут бесплатного ожидания было принято вами, поэтому мы не можем принудить клиента оплатить платное ожидание заказа, который не был выполнен. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Вопросы о запуске АПАРУ в других городах, о партнерстве
-Будет ли АПАРУ в моем городе?
-Мы таксопарк и хотим с Вами работать? Как начать с Вами работать?</t>
+          <t>Вопросы о запуске АПАРУ в других городах, о партнерстве Будет ли АПАРУ в моем городе? Мы таксопарк и хотим с Вами работать? Как начать с Вами работать?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим вас за обращение. В настоящее время компания активно занимается регистрацией водителей в вашем городе, и мы планируем запустить рекламную кампанию для привлечения пассажиров в городе « » в ближайшее время. Если у вас возникнут вопросы или потребуется дополнительная информация, вы всегда можете обратиться в Сервис центр АПАРУ, по номеру телефона: +7 (747) 09-40-225 (Круглосуточно).
-Подписывайтесь на наш Instagram-аккаунт https://www.instagram.com/aparutaxi/ и телеграм-канал https://t.me/aparutaxi, чтобы всегда быть в курсе последних новостей и обновлений.
-Мы рады, что вы выбрали нашу компанию и надеемся на долгосрочное плодотворное сотрудничество! С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим вас за обращение. В настоящее время компания активно занимается регистрацией водителей в вашем городе, и мы планируем запустить рекламную кампанию для привлечения пассажиров в городе « » в ближайшее время. Если у вас возникнут вопросы или потребуется дополнительная информация, вы всегда можете обратиться в Сервис центр АПАРУ, по номеру телефона: +7 (747) 09-40-225 (Круглосуточно). Подписывайтесь на наш Instagram-аккаунт https: //www. instagram. com/aparutaxi/ и телеграм-канал https: //t. me/aparutaxi, чтобы всегда быть в курсе последних новостей и обновлений. Мы рады, что вы выбрали нашу компанию и надеемся на долгосрочное плодотворное сотрудничество! С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">А если нет моего адреса на карте? Просьба доработать карты, исправить названия улиц ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ </t>
+          <t>А если нет моего адреса на карте? Просьба доработать карты, исправить названия улиц ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за проявленный интерес. Наша команда постоянно работает над улучшением карты города . Если вы выявили несоответствие в адресе, или отсутствующий адрес, напишите нам подробнее, какие это адреса. Подписывайтесь на наш Instagram-аккаунт https://www.instagram.com/aparutaxi/ и телеграм-канал https://t.me/aparutaxi, чтобы всегда быть в курсе последних новостей и обновлений.
-Мы рады, что вы выбрали нашу компанию и надеемся на долгосрочное плодотворное сотрудничество! С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за проявленный интерес. Наша команда постоянно работает над улучшением карты города. Если вы выявили несоответствие в адресе, или отсутствующий адрес, напишите нам подробнее, какие это адреса. Подписывайтесь на наш Instagram-аккаунт https: //www. instagram. com/aparutaxi/ и телеграм-канал https: //t. me/aparutaxi, чтобы всегда быть в курсе последних новостей и обновлений. Мы рады, что вы выбрали нашу компанию и надеемся на долгосрочное плодотворное сотрудничество! С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПЕРЕДАТЬ ЗАПРОС СПЕЦИАЛИСТУ </t>
+          <t>ПЕРЕДАТЬ ЗАПРОС СПЕЦИАЛИСТУ</t>
         </is>
       </c>
     </row>
@@ -1710,8 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Для того чтобы сменить или добавить номер телефона, необходимо выполнить вход в приложение с того номера, с которого вы зарегистрировались ранее. Для этого вставьте в новый телефон свою сим-карту со старым номером. Далее, установите на новом телефоне приложение APARU через Google Play или App Store. После этого войдите в приложение и смените номер в аккаунте. Для изменения номера телефона аккаунта вам необходимо в Профиле выбрать пункт "Телефон" и ввести новый номер телефона, нажать на кнопку "Получить код". На измененный номер телефона поступит смс с кодом, который необходимо ввести в поле "Смс-код". Появится уведомление об успешной смене номера телефона. С этого момента для входа на ваш аккаунт нужно вводить новый номер телефона.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Для того чтобы сменить или добавить номер телефона, необходимо выполнить вход в приложение с того номера, с которого вы зарегистрировались ранее. Для этого вставьте в новый телефон свою сим-карту со старым номером. Далее, установите на новом телефоне приложение APARU через Google Play или App Store. После этого войдите в приложение и смените номер в аккаунте. Для изменения номера телефона аккаунта вам необходимо в Профиле выбрать пункт "Телефон" и ввести новый номер телефона, нажать на кнопку "Получить код". На измененный номер телефона поступит смс с кодом, который необходимо ввести в поле "Смс-код". Появится уведомление об успешной смене номера телефона. С этого момента для входа на ваш аккаунт нужно вводить новый номер телефона. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">У меня нет заказов по грузоперевозкам. У меня Газель </t>
+          <t>У меня нет заказов по грузоперевозкам. У меня Газель</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1783,26 +1641,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Основное фото автомобиля необходимо для того, чтобы пассажиры могли без труда находить вас. Как показала практика, наличие фото автомобиля в приложении, заметно облегчает поиск своего такси - клиент глядя на снимок легко и быстро находит нужный автомобиль.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Основное фото автомобиля необходимо для того, чтобы пассажиры могли без труда находить вас. Как показала практика, наличие фото автомобиля в приложении, заметно облегчает поиск своего такси - клиент глядя на снимок легко и быстро находит нужный автомобиль. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">предложение оценивать пассажиров ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ </t>
+          <t>Предложение оценивать пассажиров ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Здравствуйте. Спасибо за предложение, оно находится на стадии обсуждения. Следите за обновлениями. Также хотим сообщить, что вы можете оставить свой отзыв касательно клиента. На текущий момент регистрируются такие обращения, как: 
-- "Клиент не оплатил за поездку" - от 3-х жалоб активируется предупреждение водителям, что клиент неплатежеспособен с рекомендацией брать предоплату. 
-- "Ложный вызов"
-- "Неадекватное поведение/состояние" 
-Последние два обращения хранятся в системе и при поступлении большого количества жалоб администрация рассматривает вопрос о блокировке данного клиента. Также, вы можете добавить клиента в черный список. Для этого заходим в приложение Апару - Меню - Профиль - История заказов - Выбрать заказ - Выбираем добавить в черный список. С уважением, команда АПАРУ
-Оценки от пассажиров влияют на ваш приоритет в положительную сторону. Чем больше у вас пололжительных оценок - тем выше приоритет. Например, у вас в среднем 3 положительные оценки, тогда это плюс 24 балла к вашему приоритету. 
-По поводу рекомендаций, каждая из них в отдельности - НЕ влияет на приоритет водителя в системе, а служит для вас лишь обратной связью от пассажиров - на что обратить внимание чтобы улучшить свой сервис и получать еще больше положительных оценок. Но, бывают водители, на которых поступают много однотипных рекомендаций от разных клиентов, например все жалуются на грубость водителя. И, если появляется 3 и более одинаковых рекомендаций от разных клиентов, то такие водители фиксируются системой и с ними проводится индивидуальная работа. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Спасибо за предложение, оно находится на стадии обсуждения. Следите за обновлениями. Также хотим сообщить, что вы можете оставить свой отзыв касательно клиента. На текущий момент регистрируются такие обращения, как: - "Клиент не оплатил за поездку" - от 3-х жалоб активируется предупреждение водителям, что клиент неплатежеспособен с рекомендацией брать предоплату. - "Ложный вызов" - "Неадекватное поведение/состояние" Последние два обращения хранятся в системе и при поступлении большого количества жалоб администрация рассматривает вопрос о блокировке данного клиента. Также, вы можете добавить клиента в черный список. Для этого заходим в приложение Апару - Меню - Профиль - История заказов - Выбрать заказ - Выбираем добавить в черный список. С уважением, команда АПАРУ Оценки от пассажиров влияют на ваш приоритет в положительную сторону. Чем больше у вас пололжительных оценок - тем выше приоритет. Например, у вас в среднем 3 положительные оценки, тогда это плюс 24 балла к вашему приоритету. По поводу рекомендаций, каждая из них в отдельности - НЕ влияет на приоритет водителя в системе, а служит для вас лишь обратной связью от пассажиров - на что обратить внимание чтобы улучшить свой сервис и получать еще больше положительных оценок. Но, бывают водители, на которых поступают много однотипных рекомендаций от разных клиентов, например все жалуются на грубость водителя. И, если появляется 3 и более одинаковых рекомендаций от разных клиентов, то такие водители фиксируются системой и с ними проводится индивидуальная работа. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1814,8 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Все заказы, которые находятся в ленте, являются актуальными. После принятия его на исполнение водителем или удаления пассажиром заказ автоматически удаляется с ленты. Также совершаются обратные звонки клиентам для проверки актуальности заказа, при этом время, когда клиент подтвердил ожидание такси, показывается в заказе. Также, после истечения предельного срока, отведенного на заказ, он удаляется.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Все заказы, которые находятся в ленте, являются актуальными. После принятия его на исполнение водителем или удаления пассажиром заказ автоматически удаляется с ленты. Также совершаются обратные звонки клиентам для проверки актуальности заказа, при этом время, когда клиент подтвердил ожидание такси, показывается в заказе. Также, после истечения предельного срока, отведенного на заказ, он удаляется. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1834,13 +1684,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Жалобы на брендированные автомобили не связанные с заказами и с услугами сервиса (брендированный автомобиль подрезал, заблокировал проезд, нагрубил при встрече и т.д.)</t>
+          <t>Жалобы на брендированные автомобили не связанные с заказами и с услугами сервиса (брендированный автомобиль подрезал, заблокировал проезд, нагрубил при встрече и т. д. )</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Здравствуйте. Ваше обращение зафиксировано и с водителем будет проведена беседа. Все же мы не можем быть уверены, что проишествие (ситуация) произошло в момент выполнения заказа сервиса АпаруТакси, поэтому меры в отношении данного лица в первую очередь должны приниматься уполномеченными органами. Рекомендуем вам обратиться уполномоченным органам для принятия мер в отношении нарушителя. Со своей стороны мы готовы по официальному запросу предоставить располагаемыми данными.
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Ваше обращение зафиксировано и с водителем будет проведена беседа. Все же мы не можем быть уверены, что проишествие (ситуация) произошло в момент выполнения заказа сервиса АпаруТакси, поэтому меры в отношении данного лица в первую очередь должны приниматься уполномеченными органами. Рекомендуем вам обратиться уполномоченным органам для принятия мер в отношении нарушителя. Со своей стороны мы готовы по официальному запросу предоставить располагаемыми данными. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -1876,8 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Алгоритм в нашей системе автоматически определяет ваш автомобиль к классу и присваивает приоритет при добавлении автомобиля в профиль. Внимание при распределении автомобилей обращается на их марку и модель. Для класса Комфорт были отобраны модели с высоким уровнем комфортности, а для Оптимал со средним уровнем. Уровень комфорта для пассажиров - это удобные сидения - шумоизоляция, простор в салоне, качественная отделка салона, наличие кондиционера и электрических стеклоподъемников. Полный список автомобилей с указанием их класса доступен по ссылке https://aparutaxi.kz/Legal/CheckAutoClass?lang=ru.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Алгоритм в нашей системе автоматически определяет ваш автомобиль к классу и присваивает приоритет при добавлении автомобиля в профиль. Внимание при распределении автомобилей обращается на их марку и модель. Для класса Комфорт были отобраны модели с высоким уровнем комфортности, а для Оптимал со средним уровнем. Уровень комфорта для пассажиров - это удобные сидения - шумоизоляция, простор в салоне, качественная отделка салона, наличие кондиционера и электрических стеклоподъемников. Полный список автомобилей с указанием их класса доступен по ссылке https: //aparutaxi. kz/Legal/CheckAutoClass? lang=ru. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1889,13 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. В нашем сервисе теперь действует новая система приоритетов. Это значит, что вы имеете возможность напрямую влиять на вашу скорость получения заказов. Балльная система учитывает несколько важных показателей:
- 1 Среднее количество выполненных заказов за последние 2 недели +4 балла за каждый заказ - максимально 50 баллов
- 2 Наличие уведомления о перевозке пассажиров и багажа + 30 баллов
- 3 Выполнение заказов корпоративных клиентов + 8 баллов за каждый заказ 
- 4 Положительные оценки от пассажиров +8 баллов за каждую оценку
- 5 Новое авто - 10 баллов
- Максимальное количество баллов составляет 120. От 100 до 120 баллов заказы поступают быстрее на 15 секунд, чем другим водителям. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. В нашем сервисе теперь действует новая система приоритетов. Это значит, что вы имеете возможность напрямую влиять на вашу скорость получения заказов. Балльная система учитывает несколько важных показателей: 1 Среднее количество выполненных заказов за последние 2 недели +4 балла за каждый заказ - максимально 50 баллов 2 Наличие уведомления о перевозке пассажиров и багажа + 30 баллов 3 Выполнение заказов корпоративных клиентов + 8 баллов за каждый заказ 4 Положительные оценки от пассажиров +8 баллов за каждую оценку 5 Новое авто - 10 баллов Максимальное количество баллов составляет 120. От 100 до 120 баллов заказы поступают быстрее на 15 секунд, чем другим водителям. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1907,13 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Здравствуйте. Система приоритетов распространяется на легковые автомобили по городским заказам, зарегистрированным, как и через колл-центр, так и посредством приложения. Ниже вы можете узнать как распространяются приоритеты для автомобилей разных классов: 
-а) Эконом - все заказы согласно балльной системе
-б) Оптимал - заказы Эконом согласно балльной системе, заказы по тарифу Оптимал видят моментально, без задержки
-в) Комфорт - заказы Эконом согласно балльной системе, заказы по тарифам Оптимал и Комфорт видят моментально, без задержки
-г) Универсал - согласно балльной системе. 
-Подробнее о балльной системе можете узнать в разделе “Профиль” - “Мои результаты”. 
-С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Система приоритетов распространяется на легковые автомобили по городским заказам, зарегистрированным, как и через колл-центр, так и посредством приложения. Ниже вы можете узнать как распространяются приоритеты для автомобилей разных классов: а) Эконом - все заказы согласно балльной системе б) Оптимал - заказы Эконом согласно балльной системе, заказы по тарифу Оптимал видят моментально, без задержки в) Комфорт - заказы Эконом согласно балльной системе, заказы по тарифам Оптимал и Комфорт видят моментально, без задержки г) Универсал - согласно балльной системе. Подробнее о балльной системе можете узнать в разделе “Профиль” - “Мои результаты”. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -1925,8 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Приоритет “Новое авто” получают автомобили младше 2-х лет. Если ваш автомобиль является новым, то у вас уже будет 10 баллов из 120 максимальных. Подробнее о балльной системе можете узнать в разделе “Профиль” - “Мои результаты”. 
-С уважением, команда Апару.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Приоритет “Новое авто” получают автомобили младше 2-х лет. Если ваш автомобиль является новым, то у вас уже будет 10 баллов из 120 максимальных. Подробнее о балльной системе можете узнать в разделе “Профиль” - “Мои результаты”. С уважением, команда Апару.</t>
         </is>
       </c>
     </row>
@@ -1938,8 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. В нашем обновлении мы рассмотрели приоритет в качестве доступной для водителя части нашей системы. Выполнять обычные и корпоративные заказы, получать положительные оценки водителя и оформлять уведомление - все перечисленные пункты являются вполне реализуемыми. Это значит, что у вас есть возможность напрямую влиять на вашу скорость при получения заказов. Возможно, у вас возник вопрос почему Новое авто тогда находится в данном списке, а классы Оптимал и Комфорт не влияют на приоритет. Сравнительно, водитель может позволить себе приобрести новый автомобиль. К примеру, ту же Ладу Приору. А вот более дорогой автомобиль, как Toyota Camry, не каждый водитель может купить. Соответственно, тут объективно оценивается возможность водителя приобрести ту или иную модель автомобиля. 
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. В нашем обновлении мы рассмотрели приоритет в качестве доступной для водителя части нашей системы. Выполнять обычные и корпоративные заказы, получать положительные оценки водителя и оформлять уведомление - все перечисленные пункты являются вполне реализуемыми. Это значит, что у вас есть возможность напрямую влиять на вашу скорость при получения заказов. Возможно, у вас возник вопрос почему Новое авто тогда находится в данном списке, а классы Оптимал и Комфорт не влияют на приоритет. Сравнительно, водитель может позволить себе приобрести новый автомобиль. К примеру, ту же Ладу Приору. А вот более дорогой автомобиль, как Toyota Camry, не каждый водитель может купить. Соответственно, тут объективно оценивается возможность водителя приобрести ту или иную модель автомобиля. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1963,11 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Здравствуйте. Для включения сохранения баллов вам необходимо зайти в раздел Профиль - Мои результаты - Ваш приоритет. Вы увидите надпись “Вам доступно дней для сохранения баллов: N дней”. 
-Нажав на “Подробнее”, можете ознакомиться с дополнительной информацией.
-Нажав на “Включить сохранение баллов”, вы можете закрепить имеющийся результат по баллам на доступное количество дней. 
-В ячейку вам необходимо ввести количество дней и сохранить нажатием на ОК. 
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Для включения сохранения баллов вам необходимо зайти в раздел Профиль - Мои результаты - Ваш приоритет. Вы увидите надпись “Вам доступно дней для сохранения баллов: N дней”. Нажав на “Подробнее”, можете ознакомиться с дополнительной информацией. Нажав на “Включить сохранение баллов”, вы можете закрепить имеющийся результат по баллам на доступное количество дней. В ячейку вам необходимо ввести количество дней и сохранить нажатием на ОК. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1979,8 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Для отключения сохранения баллов вам необходимо зайти в раздел Профиль - Мои результаты - Ваш приоритет. Нажатие на “Отключение сохранение баллов” вернет вас в режим накопления баллов. 
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Для отключения сохранения баллов вам необходимо зайти в раздел Профиль - Мои результаты - Ваш приоритет. Нажатие на “Отключение сохранение баллов” вернет вас в режим накопления баллов. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -1992,8 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Сохранение баллов - это функция, позволяющая водителю сохранить результат по баллам во время частичного или полного отсутствия на линии. 
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Сохранение баллов - это функция, позволяющая водителю сохранить результат по баллам во время частичного или полного отсутствия на линии. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2005,15 +1833,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Вам необходимо самостоятельно включать и отключать функцию сохранения баллов. Заказы, выполненные во время “сохранения” не учитываются в балльной системе. Однако, в статистике доходов, истории заказов и в последующем учете дней сохранения баллов заказы будут учтены.
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Вам необходимо самостоятельно включать и отключать функцию сохранения баллов. Заказы, выполненные во время “сохранения” не учитываются в балльной системе. Однако, в статистике доходов, истории заказов и в последующем учете дней сохранения баллов заказы будут учтены. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Почему мой класс авто Эконом? Должен быть выше </t>
+          <t>Почему мой класс авто Эконом? Должен быть выше</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2030,8 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. У нас есть постоянные партнеры, которые предоставляют скидки нашим водителям. На данный момент доступны скидки на прохождение техосмотра и на топливо. Подробная информация расположена у водителя в разделе Акции и Скидки. 
-С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. У нас есть постоянные партнеры, которые предоставляют скидки нашим водителям. На данный момент доступны скидки на прохождение техосмотра и на топливо. Подробная информация расположена у водителя в разделе Акции и Скидки. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2055,8 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Комиссия пригорода меньше, чем у межгорода. Подробная информация доступна по ссылке:
-https://aparutaxi.kz/p/%D1%82%D0%B0%D1%80%D0%B8%D1%84%D1%8B_%D0%BD%D0%B0_%D1%83%D1%81%D0%BB%D1%83%D0%B3%D0%B8_%D0%B0%D0%BF%D0%B0%D1%80%D1%83.  С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Комиссия пригорода меньше, чем у межгорода. Подробная информация доступна по ссылке: https: //aparutaxi. kz/p/%D1%82%D0%B0%D1%80%D0%B8%D1%84%D1%8B_%D0%BD%D0%B0_%D1%83%D1%81%D0%BB%D1%83%D0%B3%D0%B8_%D0%B0%D0%BF%D0%B0%D1%80%D1%83. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2068,9 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Авто-взятие заказа (помощник взятия заказа) - эта функция, которая позволит водителю взять ближайший заказ по заданным параметрам (расстояние от водителя и наличие примечания) без прямого участия водителя. 
-Как это работает?
-Запускается функция - настраиваются параметры - система ищет подходящий заказ - заказ автоматически берется на исполнение.С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Авто-взятие заказа (помощник взятия заказа) - эта функция, которая позволит водителю взять ближайший заказ по заданным параметрам (расстояние от водителя и наличие примечания) без прямого участия водителя. Как это работает? Запускается функция - настраиваются параметры - система ищет подходящий заказ - заказ автоматически берется на исполнение. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2082,9 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Для включения функции перейдите в раздел Лента заказов - нажмите на 3 точки в правом верхнем углу - выберите Помощник взятия заказа - Включить. 
-После активации функции вы увидите как приложение будет искать подходящий вам заказ. Заказ будет автоматически взят на исполнение. Также снизу у вас будет кнопка Остановки поиска. 
-Обратите внимание: при активации функции будет автоматически включен режим расчёта точного расстояния в ленте.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Для включения функции перейдите в раздел Лента заказов - нажмите на 3 точки в правом верхнем углу - выберите Помощник взятия заказа - Включить. После активации функции вы увидите как приложение будет искать подходящий вам заказ. Заказ будет автоматически взят на исполнение. Также снизу у вас будет кнопка Остановки поиска. Обратите внимание: при активации функции будет автоматически включен режим расчёта точного расстояния в ленте.</t>
         </is>
       </c>
     </row>
@@ -2096,29 +1917,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Вы взяли заказ по функции Помощника взятия заказа. У вас есть два варианта закрытия заказа:
-а) заказ выполнен и автоматически взять следующий
-б) заказ выполнен и отключить Помощника взятия заказа. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Вы взяли заказ по функции Помощника взятия заказа. У вас есть два варианта закрытия заказа: а) заказ выполнен и автоматически взять следующий б) заказ выполнен и отключить Помощника взятия заказа. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Какие заказы могут быть взяты водителем на исполнение при автовзятии? </t>
+          <t>Какие заказы могут быть взяты водителем на исполнение при автовзятии?</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. При автовзятии НЕ берутся на исполнение следующие заказы: 
-Заказ не должен быть межгородом
-Заказ не должен быть аукционом
-Заказ не должен быть с тарифом “Трезвый водитель”
-Заказ должен укладываться в установленные рамки дистанции указанной водителем
-У пассажира не должно быть предупреждения о неоплате поездок
-Корпоративный заказ не должен браться, если не принята соответствующая оферта
-Заказ доставки не должен браться, если не принята соответствующая оферта
-Заказ с примечанием не должен браться, если водитель не выставил принятие такого заказа вручную “Брать с примечанием” в окне автозаказа. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. При автовзятии НЕ берутся на исполнение следующие заказы: Заказ не должен быть межгородом Заказ не должен быть аукционом Заказ не должен быть с тарифом “Трезвый водитель” Заказ должен укладываться в установленные рамки дистанции указанной водителем У пассажира не должно быть предупреждения о неоплате поездок Корпоративный заказ не должен браться, если не принята соответствующая оферта Заказ доставки не должен браться, если не принята соответствующая оферта Заказ с примечанием не должен браться, если водитель не выставил принятие такого заказа вручную “Брать с примечанием” в окне автозаказа. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2178,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.Обучающий ролик по функции: https://youtu.be/Pzyb8d_8_7c. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Обучающий ролик по функции: https: //youtu. be/Pzyb8d_8_7c. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2190,9 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Функция В сторону дома - это поиск заказов с конечной точкой в сторону домашнего адреса водителя. Функция удобна водителям, которые хотят завершить смену и взять заказ по пути домой.
-Для включения функции перейдите в раздел Лента заказов - нажмите на 3 точки в правом верхнем углу - выберите В сторону дома - Включить. 
-После активации функции вы увидите на нижней части экрана таймер. За 10 минут система будет искать подходящий для вас заказ. Заказ будет поступать в виде окна назначения. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Функция В сторону дома - это поиск заказов с конечной точкой в сторону домашнего адреса водителя. Функция удобна водителям, которые хотят завершить смену и взять заказ по пути домой. Для включения функции перейдите в раздел Лента заказов - нажмите на 3 точки в правом верхнем углу - выберите В сторону дома - Включить. После активации функции вы увидите на нижней части экрана таймер. За 10 минут система будет искать подходящий для вас заказ. Заказ будет поступать в виде окна назначения. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.Нет, заказы будут назначаться вам без учета показателей в балльной системе. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Нет, заказы будут назначаться вам без учета показателей в балльной системе. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2240,8 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Система предлагает вам заказы исходя из того конечного пункта, который указан был клиентом.
-В случае смены маршрута клиентом, просим вас выполнить заказ, если вы располагаете временем. В остальных случаях вы можете удалить заказ как “Ошибка в заказе”. Единицы за взятие заказа вам вернутся. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Система предлагает вам заказы исходя из того конечного пункта, который указан был клиентом. В случае смены маршрута клиентом, просим вас выполнить заказ, если вы располагаете временем. В остальных случаях вы можете удалить заказ как “Ошибка в заказе”. Единицы за взятие заказа вам вернутся. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2253,8 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.Да, для взятия заказов необходимо принять соответствующую оферту:
-Профиль - листаем вниз: Правовая информация - Публичная оферта на использование Ленты Заказов Апару для оказания курьерских услуг - Принять. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Да, для взятия заказов необходимо принять соответствующую оферту: Профиль - листаем вниз: Правовая информация - Публичная оферта на использование Ленты Заказов Апару для оказания курьерских услуг - Принять. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.Да, заказы доставки размещаются в общую ленту с действующей на момент регистрации наценкой. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Да, заказы доставки размещаются в общую ленту с действующей на момент регистрации наценкой. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2290,8 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Оплата по заказам доставки для физ.лиц оплачивается согласно показаниям таксометра.
-Оплата по заказам доставки для юр.лиц оплачивается согласно фиксированному тарифу. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Оплата по заказам доставки для физ. лиц оплачивается согласно показаниям таксометра. Оплата по заказам доставки для юр. лиц оплачивается согласно фиксированному тарифу. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
@@ -2303,28 +2109,19 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение.
-А теперь немного подробнее о каждом из пунктов:
-✅Доступ к памяти требуется для работы функции «Точное расстояние до заказов в ленте» так как функция использует карту скачанную в память приложения.
-✅Доступ к медиа требуется только тогда, когда можно выбрать готовое фото из вашей галереи. Например, при загрузке фото профиля не обязательно делать фото в реальном времени, его можно выбрать.
-✅Доступ к местоположению необходим для получения корректной геолокации, которая является очень важной в получении и выполнении заказов, работы таксометра и всего приложения в общем.
-При необходимости приложение направляет вам запрос и доступ ко всем вашим данным происходит строго с вашего разрешения. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. А теперь немного подробнее о каждом из пунктов: ✅Доступ к памяти требуется для работы функции «Точное расстояние до заказов в ленте» так как функция использует карту скачанную в память приложения. ✅Доступ к медиа требуется только тогда, когда можно выбрать готовое фото из вашей галереи. Например, при загрузке фото профиля не обязательно делать фото в реальном времени, его можно выбрать. ✅Доступ к местоположению необходим для получения корректной геолокации, которая является очень важной в получении и выполнении заказов, работы таксометра и всего приложения в общем. При необходимости приложение направляет вам запрос и доступ ко всем вашим данным происходит строго с вашего разрешения. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">существует ли рейтинг пассажира ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ </t>
+          <t>Существует ли рейтинг пассажира ПЕРЕНАПРАВИТЬ СПЕЦИАЛИСТУ</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Здравствуйте. Спасибо за предложение, оно находится на стадии обсуждения. Следите за обновлениями. Также хотим сообщить, что вы можете оставить свой отзыв касательно клиента. На текущий момент регистрируются такие обращения, как: 
-- "Клиент не оплатил за поездку" - от 3-х жалоб активируется предупреждение водителям, что клиент неплатежеспособен с рекомендацией брать предоплату. 
-- "Ложный вызов"
-- "Неадекватное поведение/состояние" 
-Последние два обращения хранятся в системе и при поступлении большого количества жалоб администрация рассматривает вопрос о блокировке данного клиента. Также, вы можете добавить клиента в черный список. Для этого заходим в приложение Апару - Меню - Профиль - История заказов - Выбрать заказ - Выбираем добавить в черный список. С уважением, команда АПАРУ</t>
+          <t>Здравствуйте. Спасибо за предложение, оно находится на стадии обсуждения. Следите за обновлениями. Также хотим сообщить, что вы можете оставить свой отзыв касательно клиента. На текущий момент регистрируются такие обращения, как: - "Клиент не оплатил за поездку" - от 3-х жалоб активируется предупреждение водителям, что клиент неплатежеспособен с рекомендацией брать предоплату. - "Ложный вызов" - "Неадекватное поведение/состояние" Последние два обращения хранятся в системе и при поступлении большого количества жалоб администрация рассматривает вопрос о блокировке данного клиента. Также, вы можете добавить клиента в черный список. Для этого заходим в приложение Апару - Меню - Профиль - История заказов - Выбрать заказ - Выбираем добавить в черный список. С уважением, команда АПАРУ</t>
         </is>
       </c>
     </row>
@@ -2348,70 +2145,50 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. Автовзятие заказов в АПАРУ распространяется только на городские заказы.
-Мы уже ознакомлены с видео о котором вы говорите. Советую вам не устанавливать такие сторонние программы от ненадежных разработчиков. Наша команда отслеживает такие вмешательства и предпринимает меры для защиты сервиса АПАРУ от подобных программ, которые настроены на автоматическое взятие заказов. С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. Автовзятие заказов в АПАРУ распространяется только на городские заказы. Мы уже ознакомлены с видео о котором вы говорите. Советую вам не устанавливать такие сторонние программы от ненадежных разработчиков. Наша команда отслеживает такие вмешательства и предпринимает меры для защиты сервиса АПАРУ от подобных программ, которые настроены на автоматическое взятие заказов. С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>У вас есть группы (соц.сети), где обсуждения ведут водители АПАРУ?</t>
+          <t>У вас есть группы (соц. сети), где обсуждения ведут водители АПАРУ?</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Здравствуйте. Благодарим за ваше обращение. ТЕЛЕГРАММ ГРУППЫ ВОДИТЕЛЕЙ АПАРУ:
-Помощь по работе в системе. Вся информация из первых уст от представителей компании.
- Семей: https://t.me/+EZDw22G1lbUyOTRi 
-Астана: https://t.me/+gVPr9Q5TwaZhMjJi
-Актобе: https://t.me/+4e-KvpZ4UAA4M2Ey
-Алматы: https://t.me/+0DlMX_Uwnkk0NmYy
-Тараз: https://t.me/+M38eiWrJM_lhZWUy
-Шымкент: https://t.me/+vh9lzlixXrg0ZjVi
-Костанай: https://t.me/+hVeFj9y5f8JkZjVi
-Уральск: https://t.me/+A7scQjmVb65hZjFi
-Группа Межгород: https://t.me/+48xObIakz6hjOWQy
-✅ ВАТСАП ГРУППЫ ВОДИТЕЛЕЙ АПАРУ:
-Талдыкорган: https://chat.whatsapp.com/JJyRLuLaUdp5a4QB5i2tdF
-Актау: https://chat.whatsapp.com/Cve6r7RIZy85qytHqkyToT
-Семей: https://chat.whatsapp.com/BiBenKOuLDu9sMMZoXR3rc
-Тараз: https://chat.whatsapp.com/FBlh8AtZoln0W8VTvGwoBN</t>
+          <t>Здравствуйте. Благодарим за ваше обращение. ТЕЛЕГРАММ ГРУППЫ ВОДИТЕЛЕЙ АПАРУ: Помощь по работе в системе. Вся информация из первых уст от представителей компании. Семей: https: //t. me/+EZDw22G1lbUyOTRi Астана: https: //t. me/+gVPr9Q5TwaZhMjJi Актобе: https: //t. me/+4e-KvpZ4UAA4M2Ey Алматы: https: //t. me/+0DlMX_Uwnkk0NmYy Тараз: https: //t. me/+M38eiWrJM_lhZWUy Шымкент: https: //t. me/+vh9lzlixXrg0ZjVi Костанай: https: //t. me/+hVeFj9y5f8JkZjVi Уральск: https: //t. me/+A7scQjmVb65hZjFi Группа Межгород: https: //t. me/+48xObIakz6hjOWQy ✅ ВАТСАП ГРУППЫ ВОДИТЕЛЕЙ АПАРУ: Талдыкорган: https: //chat. whatsapp. com/JJyRLuLaUdp5a4QB5i2tdF Актау: https: //chat. whatsapp. com/Cve6r7RIZy85qytHqkyToT Семей: https: //chat. whatsapp. com/BiBenKOuLDu9sMMZoXR3rc Тараз: https: //chat. whatsapp. com/FBlh8AtZoln0W8VTvGwoBN</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обращение водителей из городов где АПАРУ еще не открыто, то есть все города кроме Актобе, Усть-Каменогорск, Астана, Семей и Кызылорда </t>
+          <t>Обращение водителей из городов где АПАРУ еще не открыто, то есть все города кроме Актобе, Усть-Каменогорск, Астана, Семей и Кызылорда</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Здравствуйте и благодарим за ваш активный интерес к нашей компании! В вашем городе наша команда активно занимается регистрацией новых водителей, и уже вскоре мы запустим масштабную рекламную кампанию для привлечения пассажиров.
-Предлагаем вам участвовать в продвижении АПАРУ. Рассмотрите возможность размещения QR-кода на вашем автомобиле и распространения наших визиток среди пассажиров.
-Если у вас возникнут вопросы или потребуется дополнительная информация, вы всегда можете обратиться в Сервис центр АПАРУ, по номеру телефона: +7 (747) 09-40-225 (Круглосуточно).
-Не забудьте подписаться на наш Instagram-аккаунт https://www.instagram.com/aparutaxi/ и телеграм-канал https://t.me/aparutaxi, чтобы всегда быть в курсе последних новостей и акций.
-Мы рады, что вы выбрали нашу компанию и надеемся на долгосрочное плодотворное сотрудничество! С уважением, команда АПАРУ.</t>
+          <t>Здравствуйте и благодарим за ваш активный интерес к нашей компании! В вашем городе наша команда активно занимается регистрацией новых водителей, и уже вскоре мы запустим масштабную рекламную кампанию для привлечения пассажиров. Предлагаем вам участвовать в продвижении АПАРУ. Рассмотрите возможность размещения QR-кода на вашем автомобиле и распространения наших визиток среди пассажиров. Если у вас возникнут вопросы или потребуется дополнительная информация, вы всегда можете обратиться в Сервис центр АПАРУ, по номеру телефона: +7 (747) 09-40-225 (Круглосуточно). Не забудьте подписаться на наш Instagram-аккаунт https: //www. instagram. com/aparutaxi/ и телеграм-канал https: //t. me/aparutaxi, чтобы всегда быть в курсе последних новостей и акций. Мы рады, что вы выбрали нашу компанию и надеемся на долгосрочное плодотворное сотрудничество! С уважением, команда АПАРУ.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Запрос на такси с докуменами, развозка сотрудников </t>
+          <t>Запрос на такси с докуменами, развозка сотрудников</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПЕРЕДАЕМ ЗАПРОС СПЕЦИАЛИСТУ </t>
+          <t>ПЕРЕДАЕМ ЗАПРОС СПЕЦИАЛИСТУ</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">ЛЮБЫЕ ПРЕДЛОЖЕНИЯ НАПРАВИТЬ НА СПЕЦИАЛИСТА </t>
+          <t>ЛЮБЫЕ ПРЕДЛОЖЕНИЯ НАПРАВИТЬ НА СПЕЦИАЛИСТА</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
